--- a/lang/es/headTags.xlsx
+++ b/lang/es/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1837">
   <si>
     <t>en</t>
   </si>
@@ -1457,6 +1457,12 @@
   </si>
   <si>
     <t>Explosivo</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Ojo</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -5868,7 +5874,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1180"/>
+  <dimension ref="A1:B1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8414,44 +8420,44 @@
         <v>484</v>
       </c>
       <c r="B317" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B318" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B319" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B320" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B321" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B322" t="s">
         <v>490</v>
@@ -8462,36 +8468,36 @@
         <v>491</v>
       </c>
       <c r="B323" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B324" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B325" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B326" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B327" t="s">
         <v>496</v>
@@ -8502,28 +8508,28 @@
         <v>497</v>
       </c>
       <c r="B328" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B329" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B330" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B331" t="s">
         <v>501</v>
@@ -8534,12 +8540,12 @@
         <v>502</v>
       </c>
       <c r="B332" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B333" t="s">
         <v>504</v>
@@ -8590,12 +8596,12 @@
         <v>515</v>
       </c>
       <c r="B339" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B340" t="s">
         <v>517</v>
@@ -8750,12 +8756,12 @@
         <v>554</v>
       </c>
       <c r="B359" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B360" t="s">
         <v>556</v>
@@ -8782,12 +8788,12 @@
         <v>561</v>
       </c>
       <c r="B363" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B364" t="s">
         <v>563</v>
@@ -8838,15 +8844,15 @@
         <v>574</v>
       </c>
       <c r="B370" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
+        <v>576</v>
+      </c>
+      <c r="B371" t="s">
         <v>575</v>
-      </c>
-      <c r="B371" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -8862,20 +8868,20 @@
         <v>579</v>
       </c>
       <c r="B373" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B374" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B375" t="s">
         <v>582</v>
@@ -8886,12 +8892,12 @@
         <v>583</v>
       </c>
       <c r="B376" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B377" t="s">
         <v>585</v>
@@ -8918,31 +8924,31 @@
         <v>590</v>
       </c>
       <c r="B380" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B381" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B382" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
+        <v>594</v>
+      </c>
+      <c r="B383" t="s">
         <v>593</v>
-      </c>
-      <c r="B383" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -8958,12 +8964,12 @@
         <v>597</v>
       </c>
       <c r="B385" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B386" t="s">
         <v>599</v>
@@ -8974,12 +8980,12 @@
         <v>600</v>
       </c>
       <c r="B387" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B388" t="s">
         <v>602</v>
@@ -8998,116 +9004,116 @@
         <v>605</v>
       </c>
       <c r="B390" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B391" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B392" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B393" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B394" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B395" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B396" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B397" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B398" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B399" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B400" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B401" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B402" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B403" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B404" t="s">
         <v>620</v>
@@ -9131,10 +9137,10 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B407" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -9166,20 +9172,20 @@
         <v>632</v>
       </c>
       <c r="B411" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B412" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B413" t="s">
         <v>635</v>
@@ -9190,36 +9196,36 @@
         <v>636</v>
       </c>
       <c r="B414" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B415" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B416" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B417" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B418" t="s">
         <v>641</v>
@@ -9318,36 +9324,36 @@
         <v>664</v>
       </c>
       <c r="B430" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B431" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B432" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B433" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B434" t="s">
         <v>669</v>
@@ -9358,12 +9364,12 @@
         <v>670</v>
       </c>
       <c r="B435" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B436" t="s">
         <v>672</v>
@@ -9438,12 +9444,12 @@
         <v>689</v>
       </c>
       <c r="B445" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B446" t="s">
         <v>691</v>
@@ -9494,12 +9500,12 @@
         <v>702</v>
       </c>
       <c r="B452" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B453" t="s">
         <v>704</v>
@@ -9574,36 +9580,36 @@
         <v>721</v>
       </c>
       <c r="B462" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B463" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B464" t="s">
-        <v>483</v>
+        <v>724</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B465" t="s">
-        <v>724</v>
+        <v>485</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B466" t="s">
         <v>726</v>
@@ -9622,12 +9628,12 @@
         <v>729</v>
       </c>
       <c r="B468" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B469" t="s">
         <v>731</v>
@@ -9638,36 +9644,36 @@
         <v>732</v>
       </c>
       <c r="B470" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B471" t="s">
-        <v>483</v>
+        <v>734</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B472" t="s">
-        <v>734</v>
+        <v>485</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B473" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B474" t="s">
         <v>737</v>
@@ -9678,12 +9684,12 @@
         <v>738</v>
       </c>
       <c r="B475" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B476" t="s">
         <v>740</v>
@@ -9694,20 +9700,20 @@
         <v>741</v>
       </c>
       <c r="B477" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B478" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B479" t="s">
         <v>744</v>
@@ -9718,12 +9724,12 @@
         <v>745</v>
       </c>
       <c r="B480" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B481" t="s">
         <v>747</v>
@@ -9742,44 +9748,44 @@
         <v>750</v>
       </c>
       <c r="B483" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B484" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B485" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B486" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B487" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B488" t="s">
         <v>756</v>
@@ -9942,20 +9948,20 @@
         <v>795</v>
       </c>
       <c r="B508" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B509" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B510" t="s">
         <v>798</v>
@@ -9966,12 +9972,12 @@
         <v>799</v>
       </c>
       <c r="B511" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B512" t="s">
         <v>801</v>
@@ -9982,12 +9988,12 @@
         <v>802</v>
       </c>
       <c r="B513" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B514" t="s">
         <v>804</v>
@@ -10006,28 +10012,28 @@
         <v>807</v>
       </c>
       <c r="B516" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B517" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B518" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B519" t="s">
         <v>811</v>
@@ -10118,12 +10124,12 @@
         <v>832</v>
       </c>
       <c r="B530" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B531" t="s">
         <v>834</v>
@@ -10142,28 +10148,28 @@
         <v>837</v>
       </c>
       <c r="B533" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B534" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B535" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B536" t="s">
         <v>841</v>
@@ -10174,52 +10180,52 @@
         <v>842</v>
       </c>
       <c r="B537" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B538" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B539" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B540" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B541" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B542" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B543" t="s">
         <v>849</v>
@@ -10230,12 +10236,12 @@
         <v>850</v>
       </c>
       <c r="B544" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B545" t="s">
         <v>852</v>
@@ -10254,60 +10260,60 @@
         <v>855</v>
       </c>
       <c r="B547" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B548" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B549" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B550" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B551" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B552" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B553" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B554" t="s">
         <v>863</v>
@@ -10366,28 +10372,28 @@
         <v>876</v>
       </c>
       <c r="B561" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B562" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B563" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B564" t="s">
         <v>880</v>
@@ -10406,12 +10412,12 @@
         <v>883</v>
       </c>
       <c r="B566" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B567" t="s">
         <v>885</v>
@@ -10430,12 +10436,12 @@
         <v>888</v>
       </c>
       <c r="B569" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B570" t="s">
         <v>890</v>
@@ -10462,44 +10468,44 @@
         <v>895</v>
       </c>
       <c r="B573" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B574" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B575" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B576" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B577" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B578" t="s">
         <v>901</v>
@@ -10518,12 +10524,12 @@
         <v>904</v>
       </c>
       <c r="B580" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B581" t="s">
         <v>906</v>
@@ -10542,12 +10548,12 @@
         <v>909</v>
       </c>
       <c r="B583" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B584" t="s">
         <v>911</v>
@@ -10558,12 +10564,12 @@
         <v>912</v>
       </c>
       <c r="B585" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B586" t="s">
         <v>914</v>
@@ -10606,12 +10612,12 @@
         <v>923</v>
       </c>
       <c r="B591" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B592" t="s">
         <v>925</v>
@@ -10622,20 +10628,20 @@
         <v>926</v>
       </c>
       <c r="B593" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B594" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B595" t="s">
         <v>929</v>
@@ -10678,20 +10684,20 @@
         <v>938</v>
       </c>
       <c r="B600" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B601" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B602" t="s">
         <v>941</v>
@@ -10702,20 +10708,20 @@
         <v>942</v>
       </c>
       <c r="B603" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B604" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B605" t="s">
         <v>945</v>
@@ -10726,12 +10732,12 @@
         <v>946</v>
       </c>
       <c r="B606" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B607" t="s">
         <v>948</v>
@@ -10750,20 +10756,20 @@
         <v>951</v>
       </c>
       <c r="B609" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B610" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B611" t="s">
         <v>954</v>
@@ -10782,20 +10788,20 @@
         <v>957</v>
       </c>
       <c r="B613" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B614" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B615" t="s">
         <v>960</v>
@@ -10830,20 +10836,20 @@
         <v>967</v>
       </c>
       <c r="B619" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B620" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B621" t="s">
         <v>970</v>
@@ -10854,20 +10860,20 @@
         <v>971</v>
       </c>
       <c r="B622" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B623" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B624" t="s">
         <v>974</v>
@@ -10894,92 +10900,92 @@
         <v>979</v>
       </c>
       <c r="B627" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B628" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B629" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B630" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B631" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B632" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B633" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B634" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B635" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B636" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B637" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B638" t="s">
         <v>991</v>
@@ -10990,36 +10996,36 @@
         <v>992</v>
       </c>
       <c r="B639" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B640" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B641" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B642" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B643" t="s">
         <v>997</v>
@@ -11054,12 +11060,12 @@
         <v>1004</v>
       </c>
       <c r="B647" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B648" t="s">
         <v>1006</v>
@@ -11070,12 +11076,12 @@
         <v>1007</v>
       </c>
       <c r="B649" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B650" t="s">
         <v>1009</v>
@@ -11086,12 +11092,12 @@
         <v>1010</v>
       </c>
       <c r="B651" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B652" t="s">
         <v>1012</v>
@@ -11110,12 +11116,12 @@
         <v>1015</v>
       </c>
       <c r="B654" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B655" t="s">
         <v>1017</v>
@@ -11174,36 +11180,36 @@
         <v>1030</v>
       </c>
       <c r="B662" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B663" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B664" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B665" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B666" t="s">
         <v>1035</v>
@@ -11222,28 +11228,28 @@
         <v>1038</v>
       </c>
       <c r="B668" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B669" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B670" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B671" t="s">
         <v>1042</v>
@@ -11254,44 +11260,44 @@
         <v>1043</v>
       </c>
       <c r="B672" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B673" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B674" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B675" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B676" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B677" t="s">
         <v>1049</v>
@@ -11310,28 +11316,28 @@
         <v>1052</v>
       </c>
       <c r="B679" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B680" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B681" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B682" t="s">
         <v>1056</v>
@@ -11414,12 +11420,12 @@
         <v>1075</v>
       </c>
       <c r="B692" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B693" t="s">
         <v>1077</v>
@@ -11438,12 +11444,12 @@
         <v>1080</v>
       </c>
       <c r="B695" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B696" t="s">
         <v>1082</v>
@@ -11462,12 +11468,12 @@
         <v>1085</v>
       </c>
       <c r="B698" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B699" t="s">
         <v>1087</v>
@@ -11478,20 +11484,20 @@
         <v>1088</v>
       </c>
       <c r="B700" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B701" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B702" t="s">
         <v>1091</v>
@@ -11502,60 +11508,60 @@
         <v>1092</v>
       </c>
       <c r="B703" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B704" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B705" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B706" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B707" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B708" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B709" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B710" t="s">
         <v>1100</v>
@@ -11566,12 +11572,12 @@
         <v>1101</v>
       </c>
       <c r="B711" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B712" t="s">
         <v>1103</v>
@@ -11582,20 +11588,20 @@
         <v>1104</v>
       </c>
       <c r="B713" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B714" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B715" t="s">
         <v>1107</v>
@@ -11686,12 +11692,12 @@
         <v>1128</v>
       </c>
       <c r="B726" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B727" t="s">
         <v>1130</v>
@@ -11710,12 +11716,12 @@
         <v>1133</v>
       </c>
       <c r="B729" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B730" t="s">
         <v>1135</v>
@@ -11734,28 +11740,28 @@
         <v>1138</v>
       </c>
       <c r="B732" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B733" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B734" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B735" t="s">
         <v>1142</v>
@@ -11766,44 +11772,44 @@
         <v>1143</v>
       </c>
       <c r="B736" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B737" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B738" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B739" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B740" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B741" t="s">
         <v>1149</v>
@@ -11814,36 +11820,36 @@
         <v>1150</v>
       </c>
       <c r="B742" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B743" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B744" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B745" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B746" t="s">
         <v>1155</v>
@@ -11902,12 +11908,12 @@
         <v>1168</v>
       </c>
       <c r="B753" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B754" t="s">
         <v>1170</v>
@@ -11934,12 +11940,12 @@
         <v>1175</v>
       </c>
       <c r="B757" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B758" t="s">
         <v>1177</v>
@@ -11950,20 +11956,20 @@
         <v>1178</v>
       </c>
       <c r="B759" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B760" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B761" t="s">
         <v>1181</v>
@@ -12003,15 +12009,15 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B766" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B767" t="s">
         <v>1191</v>
@@ -12038,28 +12044,28 @@
         <v>1196</v>
       </c>
       <c r="B770" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B771" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B772" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B773" t="s">
         <v>1200</v>
@@ -12070,20 +12076,20 @@
         <v>1201</v>
       </c>
       <c r="B774" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B775" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B776" t="s">
         <v>1204</v>
@@ -12118,28 +12124,28 @@
         <v>1211</v>
       </c>
       <c r="B780" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B781" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B782" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B783" t="s">
         <v>1215</v>
@@ -12158,12 +12164,12 @@
         <v>1218</v>
       </c>
       <c r="B785" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B786" t="s">
         <v>1220</v>
@@ -12174,60 +12180,60 @@
         <v>1221</v>
       </c>
       <c r="B787" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B788" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B789" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B790" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B791" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B792" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B793" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B794" t="s">
         <v>1229</v>
@@ -12302,36 +12308,36 @@
         <v>1246</v>
       </c>
       <c r="B803" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B804" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B805" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B806" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B807" t="s">
         <v>1251</v>
@@ -12366,12 +12372,12 @@
         <v>1258</v>
       </c>
       <c r="B811" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B812" t="s">
         <v>1260</v>
@@ -12406,12 +12412,12 @@
         <v>1267</v>
       </c>
       <c r="B816" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B817" t="s">
         <v>1269</v>
@@ -12422,12 +12428,12 @@
         <v>1270</v>
       </c>
       <c r="B818" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B819" t="s">
         <v>1272</v>
@@ -12438,12 +12444,12 @@
         <v>1273</v>
       </c>
       <c r="B820" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B821" t="s">
         <v>1275</v>
@@ -12454,12 +12460,12 @@
         <v>1276</v>
       </c>
       <c r="B822" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B823" t="s">
         <v>1278</v>
@@ -12470,23 +12476,23 @@
         <v>1279</v>
       </c>
       <c r="B824" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B825" t="s">
-        <v>712</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B826" t="s">
-        <v>1282</v>
+        <v>714</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -12502,36 +12508,36 @@
         <v>1285</v>
       </c>
       <c r="B828" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B829" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B830" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B831" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B832" t="s">
         <v>1290</v>
@@ -12566,12 +12572,12 @@
         <v>1297</v>
       </c>
       <c r="B836" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B837" t="s">
         <v>1299</v>
@@ -12590,36 +12596,36 @@
         <v>1302</v>
       </c>
       <c r="B839" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B840" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B841" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B842" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B843" t="s">
         <v>1307</v>
@@ -12726,60 +12732,60 @@
         <v>1332</v>
       </c>
       <c r="B856" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B857" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B858" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B859" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B860" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B861" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B862" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B863" t="s">
         <v>1340</v>
@@ -12790,28 +12796,28 @@
         <v>1341</v>
       </c>
       <c r="B864" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B865" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B866" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B867" t="s">
         <v>1345</v>
@@ -12830,12 +12836,12 @@
         <v>1348</v>
       </c>
       <c r="B869" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B870" t="s">
         <v>1350</v>
@@ -12862,15 +12868,15 @@
         <v>1355</v>
       </c>
       <c r="B873" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B874" t="s">
         <v>1356</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -12878,20 +12884,20 @@
         <v>1358</v>
       </c>
       <c r="B875" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B876" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B877" t="s">
         <v>1361</v>
@@ -12918,12 +12924,12 @@
         <v>1366</v>
       </c>
       <c r="B880" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B881" t="s">
         <v>1368</v>
@@ -12942,12 +12948,12 @@
         <v>1371</v>
       </c>
       <c r="B883" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B884" t="s">
         <v>1373</v>
@@ -12958,28 +12964,28 @@
         <v>1374</v>
       </c>
       <c r="B885" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B886" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B887" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B888" t="s">
         <v>1378</v>
@@ -12990,20 +12996,20 @@
         <v>1379</v>
       </c>
       <c r="B889" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B890" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B891" t="s">
         <v>1382</v>
@@ -13030,20 +13036,20 @@
         <v>1387</v>
       </c>
       <c r="B894" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B895" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B896" t="s">
         <v>1390</v>
@@ -13086,60 +13092,60 @@
         <v>1399</v>
       </c>
       <c r="B901" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B902" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B903" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B904" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B905" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B906" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B907" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B908" t="s">
         <v>1407</v>
@@ -13174,20 +13180,20 @@
         <v>1414</v>
       </c>
       <c r="B912" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B913" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B914" t="s">
         <v>1417</v>
@@ -13230,20 +13236,20 @@
         <v>1426</v>
       </c>
       <c r="B919" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B920" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B921" t="s">
         <v>1429</v>
@@ -13278,12 +13284,12 @@
         <v>1436</v>
       </c>
       <c r="B925" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B926" t="s">
         <v>1438</v>
@@ -13302,20 +13308,20 @@
         <v>1441</v>
       </c>
       <c r="B928" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B929" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B930" t="s">
         <v>1444</v>
@@ -13326,12 +13332,12 @@
         <v>1445</v>
       </c>
       <c r="B931" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B932" t="s">
         <v>1447</v>
@@ -13374,36 +13380,36 @@
         <v>1456</v>
       </c>
       <c r="B937" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B938" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B939" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B940" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B941" t="s">
         <v>1461</v>
@@ -13414,52 +13420,52 @@
         <v>1462</v>
       </c>
       <c r="B942" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B943" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B944" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B945" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B946" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B947" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B948" t="s">
         <v>1469</v>
@@ -13494,20 +13500,20 @@
         <v>1476</v>
       </c>
       <c r="B952" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B953" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B954" t="s">
         <v>1479</v>
@@ -13558,36 +13564,36 @@
         <v>1490</v>
       </c>
       <c r="B960" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B961" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B962" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B963" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B964" t="s">
         <v>1495</v>
@@ -13606,12 +13612,12 @@
         <v>1498</v>
       </c>
       <c r="B966" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B967" t="s">
         <v>1500</v>
@@ -13678,20 +13684,20 @@
         <v>1515</v>
       </c>
       <c r="B975" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B976" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B977" t="s">
         <v>1518</v>
@@ -13710,28 +13716,28 @@
         <v>1521</v>
       </c>
       <c r="B979" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B980" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B981" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B982" t="s">
         <v>1525</v>
@@ -13774,12 +13780,12 @@
         <v>1534</v>
       </c>
       <c r="B987" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B988" t="s">
         <v>1536</v>
@@ -13790,12 +13796,12 @@
         <v>1537</v>
       </c>
       <c r="B989" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B990" t="s">
         <v>1539</v>
@@ -13814,28 +13820,28 @@
         <v>1542</v>
       </c>
       <c r="B992" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B993" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B994" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B995" t="s">
         <v>1546</v>
@@ -13846,12 +13852,12 @@
         <v>1547</v>
       </c>
       <c r="B996" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B997" t="s">
         <v>1549</v>
@@ -13870,36 +13876,36 @@
         <v>1552</v>
       </c>
       <c r="B999" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B1000" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B1001" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1002" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1003" t="s">
         <v>1557</v>
@@ -13910,36 +13916,36 @@
         <v>1558</v>
       </c>
       <c r="B1004" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1005" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1006" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1007" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1008" t="s">
         <v>1563</v>
@@ -13958,36 +13964,36 @@
         <v>1566</v>
       </c>
       <c r="B1010" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B1011" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B1012" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B1013" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B1014" t="s">
         <v>1571</v>
@@ -14006,12 +14012,12 @@
         <v>1574</v>
       </c>
       <c r="B1016" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B1017" t="s">
         <v>1576</v>
@@ -14038,12 +14044,12 @@
         <v>1581</v>
       </c>
       <c r="B1020" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B1021" t="s">
         <v>1583</v>
@@ -14054,20 +14060,20 @@
         <v>1584</v>
       </c>
       <c r="B1022" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B1023" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B1024" t="s">
         <v>1587</v>
@@ -14078,52 +14084,52 @@
         <v>1588</v>
       </c>
       <c r="B1025" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1026" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1027" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1028" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1029" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1030" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1031" t="s">
         <v>1595</v>
@@ -14142,12 +14148,12 @@
         <v>1598</v>
       </c>
       <c r="B1033" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1034" t="s">
         <v>1600</v>
@@ -14174,20 +14180,20 @@
         <v>1605</v>
       </c>
       <c r="B1037" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1038" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1039" t="s">
         <v>1608</v>
@@ -14206,20 +14212,20 @@
         <v>1611</v>
       </c>
       <c r="B1041" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1042" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1043" t="s">
         <v>1614</v>
@@ -14230,20 +14236,20 @@
         <v>1615</v>
       </c>
       <c r="B1044" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1045" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1046" t="s">
         <v>1618</v>
@@ -14422,12 +14428,12 @@
         <v>1661</v>
       </c>
       <c r="B1068" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1069" t="s">
         <v>1663</v>
@@ -14438,28 +14444,28 @@
         <v>1664</v>
       </c>
       <c r="B1070" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1071" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1072" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1073" t="s">
         <v>1668</v>
@@ -14470,12 +14476,12 @@
         <v>1669</v>
       </c>
       <c r="B1074" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1075" t="s">
         <v>1671</v>
@@ -14486,28 +14492,28 @@
         <v>1672</v>
       </c>
       <c r="B1076" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1077" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1078" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1079" t="s">
         <v>1676</v>
@@ -14518,20 +14524,20 @@
         <v>1677</v>
       </c>
       <c r="B1080" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1081" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1082" t="s">
         <v>1680</v>
@@ -14566,20 +14572,20 @@
         <v>1687</v>
       </c>
       <c r="B1086" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1087" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1088" t="s">
         <v>1690</v>
@@ -14622,12 +14628,12 @@
         <v>1699</v>
       </c>
       <c r="B1093" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1094" t="s">
         <v>1701</v>
@@ -14646,12 +14652,12 @@
         <v>1704</v>
       </c>
       <c r="B1096" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1097" t="s">
         <v>1706</v>
@@ -14662,20 +14668,20 @@
         <v>1707</v>
       </c>
       <c r="B1098" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1099" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1100" t="s">
         <v>1710</v>
@@ -14686,12 +14692,12 @@
         <v>1711</v>
       </c>
       <c r="B1101" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1102" t="s">
         <v>1713</v>
@@ -14718,20 +14724,20 @@
         <v>1718</v>
       </c>
       <c r="B1105" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1106" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1107" t="s">
         <v>1721</v>
@@ -14886,44 +14892,44 @@
         <v>1758</v>
       </c>
       <c r="B1126" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1127" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1128" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1129" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1130" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1131" t="s">
         <v>1764</v>
@@ -14942,36 +14948,36 @@
         <v>1767</v>
       </c>
       <c r="B1133" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1134" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1135" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1136" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1137" t="s">
         <v>1772</v>
@@ -14982,12 +14988,12 @@
         <v>1773</v>
       </c>
       <c r="B1138" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1139" t="s">
         <v>1775</v>
@@ -15014,12 +15020,12 @@
         <v>1780</v>
       </c>
       <c r="B1142" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1143" t="s">
         <v>1782</v>
@@ -15030,12 +15036,12 @@
         <v>1783</v>
       </c>
       <c r="B1144" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1145" t="s">
         <v>1785</v>
@@ -15046,12 +15052,12 @@
         <v>1786</v>
       </c>
       <c r="B1146" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1147" t="s">
         <v>1788</v>
@@ -15086,44 +15092,44 @@
         <v>1795</v>
       </c>
       <c r="B1151" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1152" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1153" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1154" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1155" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1156" t="s">
         <v>1801</v>
@@ -15134,28 +15140,28 @@
         <v>1802</v>
       </c>
       <c r="B1157" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1158" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1159" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1160" t="s">
         <v>1806</v>
@@ -15166,36 +15172,36 @@
         <v>1807</v>
       </c>
       <c r="B1161" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1162" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1163" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1164" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1165" t="s">
         <v>1812</v>
@@ -15214,12 +15220,12 @@
         <v>1815</v>
       </c>
       <c r="B1167" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1168" t="s">
         <v>1817</v>
@@ -15230,12 +15236,12 @@
         <v>1818</v>
       </c>
       <c r="B1169" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1170" t="s">
         <v>1820</v>
@@ -15246,36 +15252,36 @@
         <v>1821</v>
       </c>
       <c r="B1171" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1172" t="s">
-        <v>714</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1173" t="s">
-        <v>1823</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1174" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1175" t="s">
         <v>1826</v>
@@ -15286,20 +15292,20 @@
         <v>1827</v>
       </c>
       <c r="B1176" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1177" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1178" t="s">
         <v>1830</v>
@@ -15321,8 +15327,16 @@
         <v>1834</v>
       </c>
     </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1836</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1180"/>
+  <autoFilter ref="A1:B1181"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/es/headTags.xlsx
+++ b/lang/es/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1182</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1838">
   <si>
     <t>en</t>
   </si>
@@ -4379,6 +4379,9 @@
   </si>
   <si>
     <t>Siete pecados capitales</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -5874,7 +5877,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1181"/>
+  <dimension ref="A1:B1182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13372,20 +13375,20 @@
         <v>1454</v>
       </c>
       <c r="B936" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B937" t="s">
         <v>1456</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B938" t="s">
         <v>1458</v>
@@ -13420,12 +13423,12 @@
         <v>1462</v>
       </c>
       <c r="B942" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B943" t="s">
         <v>1464</v>
@@ -13476,36 +13479,36 @@
         <v>1470</v>
       </c>
       <c r="B949" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B950" t="s">
         <v>1472</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B951" t="s">
         <v>1474</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B952" t="s">
         <v>1476</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B953" t="s">
         <v>1478</v>
@@ -13524,52 +13527,52 @@
         <v>1480</v>
       </c>
       <c r="B955" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B956" t="s">
         <v>1482</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B957" t="s">
         <v>1484</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B958" t="s">
         <v>1486</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B959" t="s">
         <v>1488</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B960" t="s">
         <v>1490</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B961" t="s">
         <v>1492</v>
@@ -13604,20 +13607,20 @@
         <v>1496</v>
       </c>
       <c r="B965" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B966" t="s">
         <v>1498</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B967" t="s">
         <v>1500</v>
@@ -13628,68 +13631,68 @@
         <v>1501</v>
       </c>
       <c r="B968" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B969" t="s">
         <v>1503</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B970" t="s">
         <v>1505</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B971" t="s">
         <v>1507</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B972" t="s">
         <v>1509</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B973" t="s">
         <v>1511</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B974" t="s">
         <v>1513</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B975" t="s">
         <v>1515</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B976" t="s">
         <v>1517</v>
@@ -13708,20 +13711,20 @@
         <v>1519</v>
       </c>
       <c r="B978" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B979" t="s">
         <v>1521</v>
-      </c>
-      <c r="B979" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B980" t="s">
         <v>1523</v>
@@ -13748,44 +13751,44 @@
         <v>1526</v>
       </c>
       <c r="B983" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B984" t="s">
         <v>1528</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B985" t="s">
         <v>1530</v>
-      </c>
-      <c r="B985" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B986" t="s">
         <v>1532</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B987" t="s">
         <v>1534</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B988" t="s">
         <v>1536</v>
@@ -13796,12 +13799,12 @@
         <v>1537</v>
       </c>
       <c r="B989" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B990" t="s">
         <v>1539</v>
@@ -13812,20 +13815,20 @@
         <v>1540</v>
       </c>
       <c r="B991" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B992" t="s">
         <v>1542</v>
-      </c>
-      <c r="B992" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B993" t="s">
         <v>1544</v>
@@ -13852,12 +13855,12 @@
         <v>1547</v>
       </c>
       <c r="B996" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B997" t="s">
         <v>1549</v>
@@ -13868,20 +13871,20 @@
         <v>1550</v>
       </c>
       <c r="B998" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B999" t="s">
         <v>1552</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B1000" t="s">
         <v>1554</v>
@@ -13916,12 +13919,12 @@
         <v>1558</v>
       </c>
       <c r="B1004" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B1005" t="s">
         <v>1560</v>
@@ -13956,20 +13959,20 @@
         <v>1564</v>
       </c>
       <c r="B1009" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1566</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B1011" t="s">
         <v>1568</v>
@@ -14004,20 +14007,20 @@
         <v>1572</v>
       </c>
       <c r="B1015" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1574</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B1017" t="s">
         <v>1576</v>
@@ -14028,28 +14031,28 @@
         <v>1577</v>
       </c>
       <c r="B1018" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1019" t="s">
         <v>1579</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1581</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B1021" t="s">
         <v>1583</v>
@@ -14060,12 +14063,12 @@
         <v>1584</v>
       </c>
       <c r="B1022" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B1023" t="s">
         <v>1586</v>
@@ -14084,12 +14087,12 @@
         <v>1588</v>
       </c>
       <c r="B1025" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B1026" t="s">
         <v>1590</v>
@@ -14140,20 +14143,20 @@
         <v>1596</v>
       </c>
       <c r="B1032" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1598</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B1034" t="s">
         <v>1600</v>
@@ -14164,28 +14167,28 @@
         <v>1601</v>
       </c>
       <c r="B1035" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1603</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1605</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1038" t="s">
         <v>1607</v>
@@ -14204,20 +14207,20 @@
         <v>1609</v>
       </c>
       <c r="B1040" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1041" t="s">
         <v>1611</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B1042" t="s">
         <v>1613</v>
@@ -14236,12 +14239,12 @@
         <v>1615</v>
       </c>
       <c r="B1044" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B1045" t="s">
         <v>1617</v>
@@ -14260,180 +14263,180 @@
         <v>1619</v>
       </c>
       <c r="B1047" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1621</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1623</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1625</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1627</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1629</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1631</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1633</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1635</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1637</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1057" t="s">
         <v>1639</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1058" t="s">
         <v>1641</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1643</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1645</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1647</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1649</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1651</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1653</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1655</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1657</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1659</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1068" t="s">
         <v>1661</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B1069" t="s">
         <v>1663</v>
@@ -14444,12 +14447,12 @@
         <v>1664</v>
       </c>
       <c r="B1070" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B1071" t="s">
         <v>1666</v>
@@ -14476,12 +14479,12 @@
         <v>1669</v>
       </c>
       <c r="B1074" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B1075" t="s">
         <v>1671</v>
@@ -14492,12 +14495,12 @@
         <v>1672</v>
       </c>
       <c r="B1076" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B1077" t="s">
         <v>1674</v>
@@ -14524,12 +14527,12 @@
         <v>1677</v>
       </c>
       <c r="B1080" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1081" t="s">
         <v>1679</v>
@@ -14548,36 +14551,36 @@
         <v>1681</v>
       </c>
       <c r="B1083" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1683</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1685</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1687</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B1087" t="s">
         <v>1689</v>
@@ -14596,44 +14599,44 @@
         <v>1691</v>
       </c>
       <c r="B1089" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1090" t="s">
         <v>1693</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1695</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1697</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1699</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B1094" t="s">
         <v>1701</v>
@@ -14644,20 +14647,20 @@
         <v>1702</v>
       </c>
       <c r="B1095" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1096" t="s">
         <v>1704</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B1097" t="s">
         <v>1706</v>
@@ -14668,12 +14671,12 @@
         <v>1707</v>
       </c>
       <c r="B1098" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B1099" t="s">
         <v>1709</v>
@@ -14692,12 +14695,12 @@
         <v>1711</v>
       </c>
       <c r="B1101" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1102" t="s">
         <v>1713</v>
@@ -14708,28 +14711,28 @@
         <v>1714</v>
       </c>
       <c r="B1103" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1716</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1718</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B1106" t="s">
         <v>1720</v>
@@ -14748,156 +14751,156 @@
         <v>1722</v>
       </c>
       <c r="B1108" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1724</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1110" t="s">
         <v>1726</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1111" t="s">
         <v>1728</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1730</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1732</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1734</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1736</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1738</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1740</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1742</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1744</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1746</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1748</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1750</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1752</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1754</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1756</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1758</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1127" t="s">
         <v>1760</v>
@@ -14940,20 +14943,20 @@
         <v>1765</v>
       </c>
       <c r="B1132" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1133" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1134" t="s">
         <v>1769</v>
@@ -14988,12 +14991,12 @@
         <v>1773</v>
       </c>
       <c r="B1138" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B1139" t="s">
         <v>1775</v>
@@ -15004,28 +15007,28 @@
         <v>1776</v>
       </c>
       <c r="B1140" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1778</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B1143" t="s">
         <v>1782</v>
@@ -15036,12 +15039,12 @@
         <v>1783</v>
       </c>
       <c r="B1144" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1145" t="s">
         <v>1785</v>
@@ -15052,12 +15055,12 @@
         <v>1786</v>
       </c>
       <c r="B1146" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B1147" t="s">
         <v>1788</v>
@@ -15068,36 +15071,36 @@
         <v>1789</v>
       </c>
       <c r="B1148" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1791</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1795</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1152" t="s">
         <v>1797</v>
@@ -15140,12 +15143,12 @@
         <v>1802</v>
       </c>
       <c r="B1157" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1158" t="s">
         <v>1804</v>
@@ -15172,12 +15175,12 @@
         <v>1807</v>
       </c>
       <c r="B1161" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B1162" t="s">
         <v>1809</v>
@@ -15212,20 +15215,20 @@
         <v>1813</v>
       </c>
       <c r="B1166" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1167" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1168" t="s">
         <v>1817</v>
@@ -15236,12 +15239,12 @@
         <v>1818</v>
       </c>
       <c r="B1169" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B1170" t="s">
         <v>1820</v>
@@ -15252,12 +15255,12 @@
         <v>1821</v>
       </c>
       <c r="B1171" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1172" t="s">
         <v>1823</v>
@@ -15268,7 +15271,7 @@
         <v>1824</v>
       </c>
       <c r="B1173" t="s">
-        <v>716</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -15276,7 +15279,7 @@
         <v>1825</v>
       </c>
       <c r="B1174" t="s">
-        <v>1825</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -15292,12 +15295,12 @@
         <v>1827</v>
       </c>
       <c r="B1176" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1177" t="s">
         <v>1829</v>
@@ -15316,27 +15319,35 @@
         <v>1831</v>
       </c>
       <c r="B1179" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1180" t="s">
         <v>1833</v>
-      </c>
-      <c r="B1180" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1181" t="s">
         <v>1835</v>
       </c>
-      <c r="B1181" t="s">
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" t="s">
         <v>1836</v>
       </c>
+      <c r="B1182" t="s">
+        <v>1837</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1181"/>
+  <autoFilter ref="A1:B1182"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/es/headTags.xlsx
+++ b/lang/es/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1842">
   <si>
     <t>en</t>
   </si>
@@ -3461,6 +3461,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Monturas del caos</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -5883,7 +5889,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1183"/>
+  <dimension ref="A1:B1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11829,36 +11835,36 @@
         <v>1150</v>
       </c>
       <c r="B742" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B743" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B744" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B745" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B746" t="s">
         <v>1155</v>
@@ -11917,12 +11923,12 @@
         <v>1168</v>
       </c>
       <c r="B753" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B754" t="s">
         <v>1170</v>
@@ -11949,12 +11955,12 @@
         <v>1175</v>
       </c>
       <c r="B757" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B758" t="s">
         <v>1177</v>
@@ -11965,20 +11971,20 @@
         <v>1178</v>
       </c>
       <c r="B759" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B760" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B761" t="s">
         <v>1181</v>
@@ -12018,15 +12024,15 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B766" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B767" t="s">
         <v>1191</v>
@@ -12053,28 +12059,28 @@
         <v>1196</v>
       </c>
       <c r="B770" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B771" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B772" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B773" t="s">
         <v>1200</v>
@@ -12085,20 +12091,20 @@
         <v>1201</v>
       </c>
       <c r="B774" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B775" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B776" t="s">
         <v>1204</v>
@@ -12133,28 +12139,28 @@
         <v>1211</v>
       </c>
       <c r="B780" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B781" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B782" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B783" t="s">
         <v>1215</v>
@@ -12173,12 +12179,12 @@
         <v>1218</v>
       </c>
       <c r="B785" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B786" t="s">
         <v>1220</v>
@@ -12189,60 +12195,60 @@
         <v>1221</v>
       </c>
       <c r="B787" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B788" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B789" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B790" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B791" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B792" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B793" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B794" t="s">
         <v>1229</v>
@@ -12317,36 +12323,36 @@
         <v>1246</v>
       </c>
       <c r="B803" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B804" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B805" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B806" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B807" t="s">
         <v>1251</v>
@@ -12381,12 +12387,12 @@
         <v>1258</v>
       </c>
       <c r="B811" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B812" t="s">
         <v>1260</v>
@@ -12421,12 +12427,12 @@
         <v>1267</v>
       </c>
       <c r="B816" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B817" t="s">
         <v>1269</v>
@@ -12437,12 +12443,12 @@
         <v>1270</v>
       </c>
       <c r="B818" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B819" t="s">
         <v>1272</v>
@@ -12453,12 +12459,12 @@
         <v>1273</v>
       </c>
       <c r="B820" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B821" t="s">
         <v>1275</v>
@@ -12469,12 +12475,12 @@
         <v>1276</v>
       </c>
       <c r="B822" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B823" t="s">
         <v>1278</v>
@@ -12485,23 +12491,23 @@
         <v>1279</v>
       </c>
       <c r="B824" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B825" t="s">
-        <v>712</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B826" t="s">
-        <v>1282</v>
+        <v>712</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -12517,36 +12523,36 @@
         <v>1285</v>
       </c>
       <c r="B828" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B829" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B830" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B831" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B832" t="s">
         <v>1290</v>
@@ -12581,12 +12587,12 @@
         <v>1297</v>
       </c>
       <c r="B836" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B837" t="s">
         <v>1299</v>
@@ -12605,36 +12611,36 @@
         <v>1302</v>
       </c>
       <c r="B839" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B840" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B841" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B842" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B843" t="s">
         <v>1307</v>
@@ -12741,60 +12747,60 @@
         <v>1332</v>
       </c>
       <c r="B856" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B857" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B858" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B859" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B860" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B861" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B862" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B863" t="s">
         <v>1340</v>
@@ -12805,28 +12811,28 @@
         <v>1341</v>
       </c>
       <c r="B864" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B865" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B866" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B867" t="s">
         <v>1345</v>
@@ -12845,12 +12851,12 @@
         <v>1348</v>
       </c>
       <c r="B869" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B870" t="s">
         <v>1350</v>
@@ -12877,15 +12883,15 @@
         <v>1355</v>
       </c>
       <c r="B873" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B874" t="s">
         <v>1356</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -12893,20 +12899,20 @@
         <v>1358</v>
       </c>
       <c r="B875" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B876" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B877" t="s">
         <v>1361</v>
@@ -12933,12 +12939,12 @@
         <v>1366</v>
       </c>
       <c r="B880" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B881" t="s">
         <v>1368</v>
@@ -12957,12 +12963,12 @@
         <v>1371</v>
       </c>
       <c r="B883" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B884" t="s">
         <v>1373</v>
@@ -12973,28 +12979,28 @@
         <v>1374</v>
       </c>
       <c r="B885" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B886" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B887" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B888" t="s">
         <v>1378</v>
@@ -13005,20 +13011,20 @@
         <v>1379</v>
       </c>
       <c r="B889" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B890" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B891" t="s">
         <v>1382</v>
@@ -13045,20 +13051,20 @@
         <v>1387</v>
       </c>
       <c r="B894" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B895" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B896" t="s">
         <v>1390</v>
@@ -13101,60 +13107,60 @@
         <v>1399</v>
       </c>
       <c r="B901" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B902" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B903" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B904" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B905" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B906" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B907" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B908" t="s">
         <v>1407</v>
@@ -13189,20 +13195,20 @@
         <v>1414</v>
       </c>
       <c r="B912" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B913" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B914" t="s">
         <v>1417</v>
@@ -13245,20 +13251,20 @@
         <v>1426</v>
       </c>
       <c r="B919" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B920" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B921" t="s">
         <v>1429</v>
@@ -13293,12 +13299,12 @@
         <v>1436</v>
       </c>
       <c r="B925" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B926" t="s">
         <v>1438</v>
@@ -13317,20 +13323,20 @@
         <v>1441</v>
       </c>
       <c r="B928" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B929" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B930" t="s">
         <v>1444</v>
@@ -13341,12 +13347,12 @@
         <v>1445</v>
       </c>
       <c r="B931" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B932" t="s">
         <v>1447</v>
@@ -13373,12 +13379,12 @@
         <v>1452</v>
       </c>
       <c r="B935" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B936" t="s">
         <v>1454</v>
@@ -13397,36 +13403,36 @@
         <v>1457</v>
       </c>
       <c r="B938" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B939" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B940" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B941" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B942" t="s">
         <v>1462</v>
@@ -13437,52 +13443,52 @@
         <v>1463</v>
       </c>
       <c r="B943" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B944" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B945" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B946" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B947" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B948" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B949" t="s">
         <v>1470</v>
@@ -13517,20 +13523,20 @@
         <v>1477</v>
       </c>
       <c r="B953" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B954" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B955" t="s">
         <v>1480</v>
@@ -13581,36 +13587,36 @@
         <v>1491</v>
       </c>
       <c r="B961" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B962" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B963" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B964" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B965" t="s">
         <v>1496</v>
@@ -13629,12 +13635,12 @@
         <v>1499</v>
       </c>
       <c r="B967" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B968" t="s">
         <v>1501</v>
@@ -13701,20 +13707,20 @@
         <v>1516</v>
       </c>
       <c r="B976" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B977" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B978" t="s">
         <v>1519</v>
@@ -13733,28 +13739,28 @@
         <v>1522</v>
       </c>
       <c r="B980" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B981" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B982" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B983" t="s">
         <v>1526</v>
@@ -13797,12 +13803,12 @@
         <v>1535</v>
       </c>
       <c r="B988" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B989" t="s">
         <v>1537</v>
@@ -13813,12 +13819,12 @@
         <v>1538</v>
       </c>
       <c r="B990" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B991" t="s">
         <v>1540</v>
@@ -13837,28 +13843,28 @@
         <v>1543</v>
       </c>
       <c r="B993" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B994" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B995" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B996" t="s">
         <v>1547</v>
@@ -13869,12 +13875,12 @@
         <v>1548</v>
       </c>
       <c r="B997" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B998" t="s">
         <v>1550</v>
@@ -13893,36 +13899,36 @@
         <v>1553</v>
       </c>
       <c r="B1000" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B1001" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1002" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1003" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1004" t="s">
         <v>1558</v>
@@ -13933,36 +13939,36 @@
         <v>1559</v>
       </c>
       <c r="B1005" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1006" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1007" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1008" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B1009" t="s">
         <v>1564</v>
@@ -13981,36 +13987,36 @@
         <v>1567</v>
       </c>
       <c r="B1011" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B1012" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B1013" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B1014" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B1015" t="s">
         <v>1572</v>
@@ -14029,12 +14035,12 @@
         <v>1575</v>
       </c>
       <c r="B1017" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B1018" t="s">
         <v>1577</v>
@@ -14061,12 +14067,12 @@
         <v>1582</v>
       </c>
       <c r="B1021" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B1022" t="s">
         <v>1584</v>
@@ -14077,20 +14083,20 @@
         <v>1585</v>
       </c>
       <c r="B1023" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B1024" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B1025" t="s">
         <v>1588</v>
@@ -14101,52 +14107,52 @@
         <v>1589</v>
       </c>
       <c r="B1026" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1027" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1028" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1029" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1030" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1031" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1032" t="s">
         <v>1596</v>
@@ -14165,12 +14171,12 @@
         <v>1599</v>
       </c>
       <c r="B1034" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1035" t="s">
         <v>1601</v>
@@ -14197,20 +14203,20 @@
         <v>1606</v>
       </c>
       <c r="B1038" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1039" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1040" t="s">
         <v>1609</v>
@@ -14237,20 +14243,20 @@
         <v>1614</v>
       </c>
       <c r="B1043" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1044" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1045" t="s">
         <v>1617</v>
@@ -14261,20 +14267,20 @@
         <v>1618</v>
       </c>
       <c r="B1046" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1047" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1048" t="s">
         <v>1621</v>
@@ -14453,12 +14459,12 @@
         <v>1664</v>
       </c>
       <c r="B1070" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1071" t="s">
         <v>1666</v>
@@ -14469,28 +14475,28 @@
         <v>1667</v>
       </c>
       <c r="B1072" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1073" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1074" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1075" t="s">
         <v>1671</v>
@@ -14501,12 +14507,12 @@
         <v>1672</v>
       </c>
       <c r="B1076" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1077" t="s">
         <v>1674</v>
@@ -14517,28 +14523,28 @@
         <v>1675</v>
       </c>
       <c r="B1078" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1079" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1080" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1081" t="s">
         <v>1679</v>
@@ -14549,20 +14555,20 @@
         <v>1680</v>
       </c>
       <c r="B1082" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1083" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1084" t="s">
         <v>1683</v>
@@ -14597,20 +14603,20 @@
         <v>1690</v>
       </c>
       <c r="B1088" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1089" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1090" t="s">
         <v>1693</v>
@@ -14653,12 +14659,12 @@
         <v>1702</v>
       </c>
       <c r="B1095" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1096" t="s">
         <v>1704</v>
@@ -14677,12 +14683,12 @@
         <v>1707</v>
       </c>
       <c r="B1098" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1099" t="s">
         <v>1709</v>
@@ -14693,20 +14699,20 @@
         <v>1710</v>
       </c>
       <c r="B1100" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1101" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1102" t="s">
         <v>1713</v>
@@ -14717,12 +14723,12 @@
         <v>1714</v>
       </c>
       <c r="B1103" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1104" t="s">
         <v>1716</v>
@@ -14749,20 +14755,20 @@
         <v>1721</v>
       </c>
       <c r="B1107" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1108" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1109" t="s">
         <v>1724</v>
@@ -14917,44 +14923,44 @@
         <v>1761</v>
       </c>
       <c r="B1128" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1129" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1130" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1131" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1132" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1133" t="s">
         <v>1767</v>
@@ -14973,36 +14979,36 @@
         <v>1770</v>
       </c>
       <c r="B1135" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1136" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1137" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1138" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1139" t="s">
         <v>1775</v>
@@ -15013,12 +15019,12 @@
         <v>1776</v>
       </c>
       <c r="B1140" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1141" t="s">
         <v>1778</v>
@@ -15045,12 +15051,12 @@
         <v>1783</v>
       </c>
       <c r="B1144" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1145" t="s">
         <v>1785</v>
@@ -15061,12 +15067,12 @@
         <v>1786</v>
       </c>
       <c r="B1146" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1147" t="s">
         <v>1788</v>
@@ -15077,12 +15083,12 @@
         <v>1789</v>
       </c>
       <c r="B1148" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B1149" t="s">
         <v>1791</v>
@@ -15117,44 +15123,44 @@
         <v>1798</v>
       </c>
       <c r="B1153" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1154" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1155" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1156" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1157" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1158" t="s">
         <v>1804</v>
@@ -15165,28 +15171,28 @@
         <v>1805</v>
       </c>
       <c r="B1159" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1160" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1161" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1162" t="s">
         <v>1809</v>
@@ -15197,36 +15203,36 @@
         <v>1810</v>
       </c>
       <c r="B1163" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1164" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1165" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1166" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1167" t="s">
         <v>1815</v>
@@ -15245,12 +15251,12 @@
         <v>1818</v>
       </c>
       <c r="B1169" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1170" t="s">
         <v>1820</v>
@@ -15261,12 +15267,12 @@
         <v>1821</v>
       </c>
       <c r="B1171" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1172" t="s">
         <v>1823</v>
@@ -15285,36 +15291,36 @@
         <v>1826</v>
       </c>
       <c r="B1174" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B1175" t="s">
-        <v>714</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1176" t="s">
-        <v>1828</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1177" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1178" t="s">
         <v>1831</v>
@@ -15325,20 +15331,20 @@
         <v>1832</v>
       </c>
       <c r="B1179" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1180" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1181" t="s">
         <v>1835</v>
@@ -15360,8 +15366,16 @@
         <v>1839</v>
       </c>
     </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1841</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1183"/>
+  <autoFilter ref="A1:B1184"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/es/headTags.xlsx
+++ b/lang/es/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1844">
   <si>
     <t>en</t>
   </si>
@@ -1931,6 +1931,12 @@
   </si>
   <si>
     <t>Font (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Fuente (arenisca cincelada roja)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -5889,7 +5895,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1184"/>
+  <dimension ref="A1:B1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9227,20 +9233,20 @@
         <v>638</v>
       </c>
       <c r="B416" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B417" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B418" t="s">
         <v>641</v>
@@ -9339,36 +9345,36 @@
         <v>664</v>
       </c>
       <c r="B430" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B431" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B432" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B433" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B434" t="s">
         <v>669</v>
@@ -9379,12 +9385,12 @@
         <v>670</v>
       </c>
       <c r="B435" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B436" t="s">
         <v>672</v>
@@ -9459,12 +9465,12 @@
         <v>689</v>
       </c>
       <c r="B445" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B446" t="s">
         <v>691</v>
@@ -9515,12 +9521,12 @@
         <v>702</v>
       </c>
       <c r="B452" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B453" t="s">
         <v>704</v>
@@ -9595,36 +9601,36 @@
         <v>721</v>
       </c>
       <c r="B462" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B463" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B464" t="s">
-        <v>485</v>
+        <v>724</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B465" t="s">
-        <v>724</v>
+        <v>485</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B466" t="s">
         <v>726</v>
@@ -9643,12 +9649,12 @@
         <v>729</v>
       </c>
       <c r="B468" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B469" t="s">
         <v>731</v>
@@ -9659,36 +9665,36 @@
         <v>732</v>
       </c>
       <c r="B470" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B471" t="s">
-        <v>485</v>
+        <v>734</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B472" t="s">
-        <v>734</v>
+        <v>485</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B473" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B474" t="s">
         <v>737</v>
@@ -9699,12 +9705,12 @@
         <v>738</v>
       </c>
       <c r="B475" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B476" t="s">
         <v>740</v>
@@ -9715,20 +9721,20 @@
         <v>741</v>
       </c>
       <c r="B477" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B478" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B479" t="s">
         <v>744</v>
@@ -9739,12 +9745,12 @@
         <v>745</v>
       </c>
       <c r="B480" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B481" t="s">
         <v>747</v>
@@ -9763,44 +9769,44 @@
         <v>750</v>
       </c>
       <c r="B483" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B484" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B485" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B486" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B487" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B488" t="s">
         <v>756</v>
@@ -9963,20 +9969,20 @@
         <v>795</v>
       </c>
       <c r="B508" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B509" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B510" t="s">
         <v>798</v>
@@ -9987,12 +9993,12 @@
         <v>799</v>
       </c>
       <c r="B511" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B512" t="s">
         <v>801</v>
@@ -10003,12 +10009,12 @@
         <v>802</v>
       </c>
       <c r="B513" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B514" t="s">
         <v>804</v>
@@ -10027,28 +10033,28 @@
         <v>807</v>
       </c>
       <c r="B516" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B517" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B518" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B519" t="s">
         <v>811</v>
@@ -10139,12 +10145,12 @@
         <v>832</v>
       </c>
       <c r="B530" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B531" t="s">
         <v>834</v>
@@ -10163,28 +10169,28 @@
         <v>837</v>
       </c>
       <c r="B533" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B534" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B535" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B536" t="s">
         <v>841</v>
@@ -10195,52 +10201,52 @@
         <v>842</v>
       </c>
       <c r="B537" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B538" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B539" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B540" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B541" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B542" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B543" t="s">
         <v>849</v>
@@ -10251,12 +10257,12 @@
         <v>850</v>
       </c>
       <c r="B544" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B545" t="s">
         <v>852</v>
@@ -10275,60 +10281,60 @@
         <v>855</v>
       </c>
       <c r="B547" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B548" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B549" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B550" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B551" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B552" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B553" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B554" t="s">
         <v>863</v>
@@ -10387,28 +10393,28 @@
         <v>876</v>
       </c>
       <c r="B561" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B562" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B563" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B564" t="s">
         <v>880</v>
@@ -10427,12 +10433,12 @@
         <v>883</v>
       </c>
       <c r="B566" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B567" t="s">
         <v>885</v>
@@ -10451,12 +10457,12 @@
         <v>888</v>
       </c>
       <c r="B569" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B570" t="s">
         <v>890</v>
@@ -10483,44 +10489,44 @@
         <v>895</v>
       </c>
       <c r="B573" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B574" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B575" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B576" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B577" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B578" t="s">
         <v>901</v>
@@ -10539,12 +10545,12 @@
         <v>904</v>
       </c>
       <c r="B580" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B581" t="s">
         <v>906</v>
@@ -10563,12 +10569,12 @@
         <v>909</v>
       </c>
       <c r="B583" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B584" t="s">
         <v>911</v>
@@ -10579,12 +10585,12 @@
         <v>912</v>
       </c>
       <c r="B585" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B586" t="s">
         <v>914</v>
@@ -10627,12 +10633,12 @@
         <v>923</v>
       </c>
       <c r="B591" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B592" t="s">
         <v>925</v>
@@ -10643,20 +10649,20 @@
         <v>926</v>
       </c>
       <c r="B593" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B594" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B595" t="s">
         <v>929</v>
@@ -10699,20 +10705,20 @@
         <v>938</v>
       </c>
       <c r="B600" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B601" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B602" t="s">
         <v>941</v>
@@ -10723,20 +10729,20 @@
         <v>942</v>
       </c>
       <c r="B603" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B604" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B605" t="s">
         <v>945</v>
@@ -10747,12 +10753,12 @@
         <v>946</v>
       </c>
       <c r="B606" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B607" t="s">
         <v>948</v>
@@ -10771,20 +10777,20 @@
         <v>951</v>
       </c>
       <c r="B609" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B610" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B611" t="s">
         <v>954</v>
@@ -10803,20 +10809,20 @@
         <v>957</v>
       </c>
       <c r="B613" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B614" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B615" t="s">
         <v>960</v>
@@ -10851,20 +10857,20 @@
         <v>967</v>
       </c>
       <c r="B619" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B620" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B621" t="s">
         <v>970</v>
@@ -10875,20 +10881,20 @@
         <v>971</v>
       </c>
       <c r="B622" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B623" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B624" t="s">
         <v>974</v>
@@ -10915,92 +10921,92 @@
         <v>979</v>
       </c>
       <c r="B627" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B628" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B629" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B630" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B631" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B632" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B633" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B634" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B635" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B636" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B637" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B638" t="s">
         <v>991</v>
@@ -11011,36 +11017,36 @@
         <v>992</v>
       </c>
       <c r="B639" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B640" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B641" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B642" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B643" t="s">
         <v>997</v>
@@ -11075,12 +11081,12 @@
         <v>1004</v>
       </c>
       <c r="B647" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B648" t="s">
         <v>1006</v>
@@ -11091,12 +11097,12 @@
         <v>1007</v>
       </c>
       <c r="B649" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B650" t="s">
         <v>1009</v>
@@ -11107,12 +11113,12 @@
         <v>1010</v>
       </c>
       <c r="B651" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B652" t="s">
         <v>1012</v>
@@ -11131,12 +11137,12 @@
         <v>1015</v>
       </c>
       <c r="B654" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B655" t="s">
         <v>1017</v>
@@ -11195,36 +11201,36 @@
         <v>1030</v>
       </c>
       <c r="B662" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B663" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B664" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B665" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B666" t="s">
         <v>1035</v>
@@ -11243,28 +11249,28 @@
         <v>1038</v>
       </c>
       <c r="B668" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B669" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B670" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B671" t="s">
         <v>1042</v>
@@ -11275,44 +11281,44 @@
         <v>1043</v>
       </c>
       <c r="B672" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B673" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B674" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B675" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B676" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B677" t="s">
         <v>1049</v>
@@ -11331,28 +11337,28 @@
         <v>1052</v>
       </c>
       <c r="B679" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B680" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B681" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B682" t="s">
         <v>1056</v>
@@ -11435,12 +11441,12 @@
         <v>1075</v>
       </c>
       <c r="B692" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B693" t="s">
         <v>1077</v>
@@ -11459,12 +11465,12 @@
         <v>1080</v>
       </c>
       <c r="B695" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B696" t="s">
         <v>1082</v>
@@ -11483,12 +11489,12 @@
         <v>1085</v>
       </c>
       <c r="B698" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B699" t="s">
         <v>1087</v>
@@ -11499,20 +11505,20 @@
         <v>1088</v>
       </c>
       <c r="B700" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B701" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B702" t="s">
         <v>1091</v>
@@ -11523,60 +11529,60 @@
         <v>1092</v>
       </c>
       <c r="B703" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B704" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B705" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B706" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B707" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B708" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B709" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B710" t="s">
         <v>1100</v>
@@ -11587,12 +11593,12 @@
         <v>1101</v>
       </c>
       <c r="B711" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B712" t="s">
         <v>1103</v>
@@ -11603,20 +11609,20 @@
         <v>1104</v>
       </c>
       <c r="B713" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B714" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B715" t="s">
         <v>1107</v>
@@ -11707,12 +11713,12 @@
         <v>1128</v>
       </c>
       <c r="B726" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B727" t="s">
         <v>1130</v>
@@ -11731,12 +11737,12 @@
         <v>1133</v>
       </c>
       <c r="B729" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B730" t="s">
         <v>1135</v>
@@ -11755,28 +11761,28 @@
         <v>1138</v>
       </c>
       <c r="B732" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B733" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B734" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B735" t="s">
         <v>1142</v>
@@ -11787,44 +11793,44 @@
         <v>1143</v>
       </c>
       <c r="B736" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B737" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B738" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B739" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B740" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B741" t="s">
         <v>1149</v>
@@ -11843,36 +11849,36 @@
         <v>1152</v>
       </c>
       <c r="B743" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B744" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B745" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B746" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B747" t="s">
         <v>1157</v>
@@ -11931,12 +11937,12 @@
         <v>1170</v>
       </c>
       <c r="B754" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B755" t="s">
         <v>1172</v>
@@ -11963,12 +11969,12 @@
         <v>1177</v>
       </c>
       <c r="B758" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B759" t="s">
         <v>1179</v>
@@ -11979,20 +11985,20 @@
         <v>1180</v>
       </c>
       <c r="B760" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B761" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B762" t="s">
         <v>1183</v>
@@ -12032,15 +12038,15 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B767" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B768" t="s">
         <v>1193</v>
@@ -12067,28 +12073,28 @@
         <v>1198</v>
       </c>
       <c r="B771" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B772" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B773" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B774" t="s">
         <v>1202</v>
@@ -12099,20 +12105,20 @@
         <v>1203</v>
       </c>
       <c r="B775" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B776" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B777" t="s">
         <v>1206</v>
@@ -12147,28 +12153,28 @@
         <v>1213</v>
       </c>
       <c r="B781" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B782" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B783" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B784" t="s">
         <v>1217</v>
@@ -12187,12 +12193,12 @@
         <v>1220</v>
       </c>
       <c r="B786" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B787" t="s">
         <v>1222</v>
@@ -12203,60 +12209,60 @@
         <v>1223</v>
       </c>
       <c r="B788" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B789" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B790" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B791" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B792" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B793" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B794" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B795" t="s">
         <v>1231</v>
@@ -12331,36 +12337,36 @@
         <v>1248</v>
       </c>
       <c r="B804" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B805" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B806" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B807" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B808" t="s">
         <v>1253</v>
@@ -12395,12 +12401,12 @@
         <v>1260</v>
       </c>
       <c r="B812" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B813" t="s">
         <v>1262</v>
@@ -12435,12 +12441,12 @@
         <v>1269</v>
       </c>
       <c r="B817" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B818" t="s">
         <v>1271</v>
@@ -12451,12 +12457,12 @@
         <v>1272</v>
       </c>
       <c r="B819" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B820" t="s">
         <v>1274</v>
@@ -12467,12 +12473,12 @@
         <v>1275</v>
       </c>
       <c r="B821" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B822" t="s">
         <v>1277</v>
@@ -12483,12 +12489,12 @@
         <v>1278</v>
       </c>
       <c r="B823" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B824" t="s">
         <v>1280</v>
@@ -12499,23 +12505,23 @@
         <v>1281</v>
       </c>
       <c r="B825" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B826" t="s">
-        <v>712</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B827" t="s">
-        <v>1284</v>
+        <v>714</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -12531,36 +12537,36 @@
         <v>1287</v>
       </c>
       <c r="B829" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B830" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B831" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B832" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B833" t="s">
         <v>1292</v>
@@ -12595,12 +12601,12 @@
         <v>1299</v>
       </c>
       <c r="B837" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B838" t="s">
         <v>1301</v>
@@ -12619,36 +12625,36 @@
         <v>1304</v>
       </c>
       <c r="B840" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B841" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B842" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B843" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B844" t="s">
         <v>1309</v>
@@ -12755,60 +12761,60 @@
         <v>1334</v>
       </c>
       <c r="B857" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B858" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B859" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B860" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B861" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B862" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B863" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B864" t="s">
         <v>1342</v>
@@ -12819,28 +12825,28 @@
         <v>1343</v>
       </c>
       <c r="B865" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B866" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B867" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B868" t="s">
         <v>1347</v>
@@ -12859,12 +12865,12 @@
         <v>1350</v>
       </c>
       <c r="B870" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B871" t="s">
         <v>1352</v>
@@ -12891,15 +12897,15 @@
         <v>1357</v>
       </c>
       <c r="B874" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B875" t="s">
         <v>1358</v>
-      </c>
-      <c r="B875" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -12907,20 +12913,20 @@
         <v>1360</v>
       </c>
       <c r="B876" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B877" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B878" t="s">
         <v>1363</v>
@@ -12947,12 +12953,12 @@
         <v>1368</v>
       </c>
       <c r="B881" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B882" t="s">
         <v>1370</v>
@@ -12971,12 +12977,12 @@
         <v>1373</v>
       </c>
       <c r="B884" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B885" t="s">
         <v>1375</v>
@@ -12987,28 +12993,28 @@
         <v>1376</v>
       </c>
       <c r="B886" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B887" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B888" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B889" t="s">
         <v>1380</v>
@@ -13019,20 +13025,20 @@
         <v>1381</v>
       </c>
       <c r="B890" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B891" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B892" t="s">
         <v>1384</v>
@@ -13059,20 +13065,20 @@
         <v>1389</v>
       </c>
       <c r="B895" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B896" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B897" t="s">
         <v>1392</v>
@@ -13115,60 +13121,60 @@
         <v>1401</v>
       </c>
       <c r="B902" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B903" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B904" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B905" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B906" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B907" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B908" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B909" t="s">
         <v>1409</v>
@@ -13203,20 +13209,20 @@
         <v>1416</v>
       </c>
       <c r="B913" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B914" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B915" t="s">
         <v>1419</v>
@@ -13259,20 +13265,20 @@
         <v>1428</v>
       </c>
       <c r="B920" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B921" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B922" t="s">
         <v>1431</v>
@@ -13307,12 +13313,12 @@
         <v>1438</v>
       </c>
       <c r="B926" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B927" t="s">
         <v>1440</v>
@@ -13331,20 +13337,20 @@
         <v>1443</v>
       </c>
       <c r="B929" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B930" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B931" t="s">
         <v>1446</v>
@@ -13355,12 +13361,12 @@
         <v>1447</v>
       </c>
       <c r="B932" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B933" t="s">
         <v>1449</v>
@@ -13387,12 +13393,12 @@
         <v>1454</v>
       </c>
       <c r="B936" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B937" t="s">
         <v>1456</v>
@@ -13411,36 +13417,36 @@
         <v>1459</v>
       </c>
       <c r="B939" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B940" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B941" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B942" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B943" t="s">
         <v>1464</v>
@@ -13451,52 +13457,52 @@
         <v>1465</v>
       </c>
       <c r="B944" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B945" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B946" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B947" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B948" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B949" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B950" t="s">
         <v>1472</v>
@@ -13531,20 +13537,20 @@
         <v>1479</v>
       </c>
       <c r="B954" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B955" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B956" t="s">
         <v>1482</v>
@@ -13595,36 +13601,36 @@
         <v>1493</v>
       </c>
       <c r="B962" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B963" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B964" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B965" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B966" t="s">
         <v>1498</v>
@@ -13643,12 +13649,12 @@
         <v>1501</v>
       </c>
       <c r="B968" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B969" t="s">
         <v>1503</v>
@@ -13715,20 +13721,20 @@
         <v>1518</v>
       </c>
       <c r="B977" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B978" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B979" t="s">
         <v>1521</v>
@@ -13747,28 +13753,28 @@
         <v>1524</v>
       </c>
       <c r="B981" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B982" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B983" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B984" t="s">
         <v>1528</v>
@@ -13811,12 +13817,12 @@
         <v>1537</v>
       </c>
       <c r="B989" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B990" t="s">
         <v>1539</v>
@@ -13827,12 +13833,12 @@
         <v>1540</v>
       </c>
       <c r="B991" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B992" t="s">
         <v>1542</v>
@@ -13851,28 +13857,28 @@
         <v>1545</v>
       </c>
       <c r="B994" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B995" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B996" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B997" t="s">
         <v>1549</v>
@@ -13883,12 +13889,12 @@
         <v>1550</v>
       </c>
       <c r="B998" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B999" t="s">
         <v>1552</v>
@@ -13907,36 +13913,36 @@
         <v>1555</v>
       </c>
       <c r="B1001" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1002" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1003" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1004" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1005" t="s">
         <v>1560</v>
@@ -13947,36 +13953,36 @@
         <v>1561</v>
       </c>
       <c r="B1006" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1007" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B1008" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B1009" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B1010" t="s">
         <v>1566</v>
@@ -13995,36 +14001,36 @@
         <v>1569</v>
       </c>
       <c r="B1012" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B1013" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B1014" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B1015" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B1016" t="s">
         <v>1574</v>
@@ -14043,12 +14049,12 @@
         <v>1577</v>
       </c>
       <c r="B1018" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B1019" t="s">
         <v>1579</v>
@@ -14075,12 +14081,12 @@
         <v>1584</v>
       </c>
       <c r="B1022" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B1023" t="s">
         <v>1586</v>
@@ -14091,20 +14097,20 @@
         <v>1587</v>
       </c>
       <c r="B1024" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1025" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1026" t="s">
         <v>1590</v>
@@ -14115,52 +14121,52 @@
         <v>1591</v>
       </c>
       <c r="B1027" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1028" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1029" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1030" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1031" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1032" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1033" t="s">
         <v>1598</v>
@@ -14179,12 +14185,12 @@
         <v>1601</v>
       </c>
       <c r="B1035" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1036" t="s">
         <v>1603</v>
@@ -14211,20 +14217,20 @@
         <v>1608</v>
       </c>
       <c r="B1039" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1040" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1041" t="s">
         <v>1611</v>
@@ -14251,20 +14257,20 @@
         <v>1616</v>
       </c>
       <c r="B1044" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1045" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1046" t="s">
         <v>1619</v>
@@ -14275,20 +14281,20 @@
         <v>1620</v>
       </c>
       <c r="B1047" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1048" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1049" t="s">
         <v>1623</v>
@@ -14467,12 +14473,12 @@
         <v>1666</v>
       </c>
       <c r="B1071" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1072" t="s">
         <v>1668</v>
@@ -14483,28 +14489,28 @@
         <v>1669</v>
       </c>
       <c r="B1073" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1074" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1075" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1076" t="s">
         <v>1673</v>
@@ -14515,12 +14521,12 @@
         <v>1674</v>
       </c>
       <c r="B1077" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1078" t="s">
         <v>1676</v>
@@ -14531,28 +14537,28 @@
         <v>1677</v>
       </c>
       <c r="B1079" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1080" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1081" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1082" t="s">
         <v>1681</v>
@@ -14563,20 +14569,20 @@
         <v>1682</v>
       </c>
       <c r="B1083" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1084" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1085" t="s">
         <v>1685</v>
@@ -14611,20 +14617,20 @@
         <v>1692</v>
       </c>
       <c r="B1089" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1090" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1091" t="s">
         <v>1695</v>
@@ -14667,12 +14673,12 @@
         <v>1704</v>
       </c>
       <c r="B1096" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1097" t="s">
         <v>1706</v>
@@ -14691,12 +14697,12 @@
         <v>1709</v>
       </c>
       <c r="B1099" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1100" t="s">
         <v>1711</v>
@@ -14707,20 +14713,20 @@
         <v>1712</v>
       </c>
       <c r="B1101" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1102" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1103" t="s">
         <v>1715</v>
@@ -14731,12 +14737,12 @@
         <v>1716</v>
       </c>
       <c r="B1104" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1105" t="s">
         <v>1718</v>
@@ -14763,20 +14769,20 @@
         <v>1723</v>
       </c>
       <c r="B1108" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1109" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1110" t="s">
         <v>1726</v>
@@ -14931,44 +14937,44 @@
         <v>1763</v>
       </c>
       <c r="B1129" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1130" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1131" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1132" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1133" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1134" t="s">
         <v>1769</v>
@@ -14987,36 +14993,36 @@
         <v>1772</v>
       </c>
       <c r="B1136" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1137" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1138" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1139" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1140" t="s">
         <v>1777</v>
@@ -15027,12 +15033,12 @@
         <v>1778</v>
       </c>
       <c r="B1141" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1142" t="s">
         <v>1780</v>
@@ -15059,12 +15065,12 @@
         <v>1785</v>
       </c>
       <c r="B1145" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1146" t="s">
         <v>1787</v>
@@ -15075,12 +15081,12 @@
         <v>1788</v>
       </c>
       <c r="B1147" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B1148" t="s">
         <v>1790</v>
@@ -15091,12 +15097,12 @@
         <v>1791</v>
       </c>
       <c r="B1149" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B1150" t="s">
         <v>1793</v>
@@ -15131,44 +15137,44 @@
         <v>1800</v>
       </c>
       <c r="B1154" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1155" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1156" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1157" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1158" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1159" t="s">
         <v>1806</v>
@@ -15179,28 +15185,28 @@
         <v>1807</v>
       </c>
       <c r="B1160" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1161" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1162" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1163" t="s">
         <v>1811</v>
@@ -15211,36 +15217,36 @@
         <v>1812</v>
       </c>
       <c r="B1164" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1165" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1166" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1167" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1168" t="s">
         <v>1817</v>
@@ -15259,12 +15265,12 @@
         <v>1820</v>
       </c>
       <c r="B1170" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B1171" t="s">
         <v>1822</v>
@@ -15275,12 +15281,12 @@
         <v>1823</v>
       </c>
       <c r="B1172" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1173" t="s">
         <v>1825</v>
@@ -15299,36 +15305,36 @@
         <v>1828</v>
       </c>
       <c r="B1175" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1176" t="s">
-        <v>714</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1177" t="s">
-        <v>1830</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1178" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1179" t="s">
         <v>1833</v>
@@ -15339,20 +15345,20 @@
         <v>1834</v>
       </c>
       <c r="B1180" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1181" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1182" t="s">
         <v>1837</v>
@@ -15374,8 +15380,16 @@
         <v>1841</v>
       </c>
     </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1843</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1184"/>
+  <autoFilter ref="A1:B1185"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/es/headTags.xlsx
+++ b/lang/es/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1846">
   <si>
     <t>en</t>
   </si>
@@ -5150,6 +5150,12 @@
   </si>
   <si>
     <t>Bosque Crepuscular</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>El retorcido país de las maravillas</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -5895,7 +5901,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1185"/>
+  <dimension ref="A1:B1186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14705,12 +14711,12 @@
         <v>1711</v>
       </c>
       <c r="B1100" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1101" t="s">
         <v>1713</v>
@@ -14721,20 +14727,20 @@
         <v>1714</v>
       </c>
       <c r="B1102" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1103" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1104" t="s">
         <v>1717</v>
@@ -14745,12 +14751,12 @@
         <v>1718</v>
       </c>
       <c r="B1105" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1106" t="s">
         <v>1720</v>
@@ -14777,20 +14783,20 @@
         <v>1725</v>
       </c>
       <c r="B1109" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1110" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1111" t="s">
         <v>1728</v>
@@ -14945,44 +14951,44 @@
         <v>1765</v>
       </c>
       <c r="B1130" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1131" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1132" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1133" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1134" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1135" t="s">
         <v>1771</v>
@@ -15001,36 +15007,36 @@
         <v>1774</v>
       </c>
       <c r="B1137" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1138" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1139" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1140" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1141" t="s">
         <v>1779</v>
@@ -15041,12 +15047,12 @@
         <v>1780</v>
       </c>
       <c r="B1142" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1143" t="s">
         <v>1782</v>
@@ -15073,12 +15079,12 @@
         <v>1787</v>
       </c>
       <c r="B1146" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B1147" t="s">
         <v>1789</v>
@@ -15089,12 +15095,12 @@
         <v>1790</v>
       </c>
       <c r="B1148" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B1149" t="s">
         <v>1792</v>
@@ -15105,12 +15111,12 @@
         <v>1793</v>
       </c>
       <c r="B1150" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B1151" t="s">
         <v>1795</v>
@@ -15145,44 +15151,44 @@
         <v>1802</v>
       </c>
       <c r="B1155" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1156" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1157" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1158" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1159" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1160" t="s">
         <v>1808</v>
@@ -15193,28 +15199,28 @@
         <v>1809</v>
       </c>
       <c r="B1161" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1162" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1163" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1164" t="s">
         <v>1813</v>
@@ -15225,36 +15231,36 @@
         <v>1814</v>
       </c>
       <c r="B1165" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1166" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1167" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1168" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1169" t="s">
         <v>1819</v>
@@ -15273,12 +15279,12 @@
         <v>1822</v>
       </c>
       <c r="B1171" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1172" t="s">
         <v>1824</v>
@@ -15289,12 +15295,12 @@
         <v>1825</v>
       </c>
       <c r="B1173" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1174" t="s">
         <v>1827</v>
@@ -15313,36 +15319,36 @@
         <v>1830</v>
       </c>
       <c r="B1176" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1177" t="s">
-        <v>716</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1178" t="s">
-        <v>1832</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1179" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1180" t="s">
         <v>1835</v>
@@ -15353,20 +15359,20 @@
         <v>1836</v>
       </c>
       <c r="B1181" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1182" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1183" t="s">
         <v>1839</v>
@@ -15388,8 +15394,16 @@
         <v>1843</v>
       </c>
     </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1845</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1185"/>
+  <autoFilter ref="A1:B1186"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/es/headTags.xlsx
+++ b/lang/es/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1848">
   <si>
     <t>en</t>
   </si>
@@ -2750,6 +2750,12 @@
   </si>
   <si>
     <t>Hypixel (Súbdito)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Etiqueta Hypixel (Mutaciones)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -5901,7 +5907,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1186"/>
+  <dimension ref="A1:B1187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10583,12 +10589,12 @@
         <v>911</v>
       </c>
       <c r="B584" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B585" t="s">
         <v>913</v>
@@ -10599,12 +10605,12 @@
         <v>914</v>
       </c>
       <c r="B586" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B587" t="s">
         <v>916</v>
@@ -10647,12 +10653,12 @@
         <v>925</v>
       </c>
       <c r="B592" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B593" t="s">
         <v>927</v>
@@ -10663,20 +10669,20 @@
         <v>928</v>
       </c>
       <c r="B594" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B595" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B596" t="s">
         <v>931</v>
@@ -10719,20 +10725,20 @@
         <v>940</v>
       </c>
       <c r="B601" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B602" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B603" t="s">
         <v>943</v>
@@ -10743,20 +10749,20 @@
         <v>944</v>
       </c>
       <c r="B604" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B605" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B606" t="s">
         <v>947</v>
@@ -10767,12 +10773,12 @@
         <v>948</v>
       </c>
       <c r="B607" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B608" t="s">
         <v>950</v>
@@ -10791,20 +10797,20 @@
         <v>953</v>
       </c>
       <c r="B610" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B611" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B612" t="s">
         <v>956</v>
@@ -10823,20 +10829,20 @@
         <v>959</v>
       </c>
       <c r="B614" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B615" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B616" t="s">
         <v>962</v>
@@ -10871,20 +10877,20 @@
         <v>969</v>
       </c>
       <c r="B620" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B621" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B622" t="s">
         <v>972</v>
@@ -10895,20 +10901,20 @@
         <v>973</v>
       </c>
       <c r="B623" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B624" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B625" t="s">
         <v>976</v>
@@ -10935,92 +10941,92 @@
         <v>981</v>
       </c>
       <c r="B628" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B629" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B630" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B631" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B632" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B633" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B634" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B635" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B636" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B637" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B638" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B639" t="s">
         <v>993</v>
@@ -11031,36 +11037,36 @@
         <v>994</v>
       </c>
       <c r="B640" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B641" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B642" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B643" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B644" t="s">
         <v>999</v>
@@ -11095,12 +11101,12 @@
         <v>1006</v>
       </c>
       <c r="B648" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B649" t="s">
         <v>1008</v>
@@ -11111,12 +11117,12 @@
         <v>1009</v>
       </c>
       <c r="B650" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B651" t="s">
         <v>1011</v>
@@ -11127,12 +11133,12 @@
         <v>1012</v>
       </c>
       <c r="B652" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B653" t="s">
         <v>1014</v>
@@ -11151,12 +11157,12 @@
         <v>1017</v>
       </c>
       <c r="B655" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B656" t="s">
         <v>1019</v>
@@ -11215,36 +11221,36 @@
         <v>1032</v>
       </c>
       <c r="B663" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B664" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B665" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B666" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B667" t="s">
         <v>1037</v>
@@ -11263,28 +11269,28 @@
         <v>1040</v>
       </c>
       <c r="B669" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B670" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B671" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B672" t="s">
         <v>1044</v>
@@ -11295,44 +11301,44 @@
         <v>1045</v>
       </c>
       <c r="B673" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B674" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B675" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B676" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B677" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B678" t="s">
         <v>1051</v>
@@ -11351,28 +11357,28 @@
         <v>1054</v>
       </c>
       <c r="B680" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B681" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B682" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B683" t="s">
         <v>1058</v>
@@ -11455,12 +11461,12 @@
         <v>1077</v>
       </c>
       <c r="B693" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B694" t="s">
         <v>1079</v>
@@ -11479,12 +11485,12 @@
         <v>1082</v>
       </c>
       <c r="B696" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B697" t="s">
         <v>1084</v>
@@ -11503,12 +11509,12 @@
         <v>1087</v>
       </c>
       <c r="B699" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B700" t="s">
         <v>1089</v>
@@ -11519,20 +11525,20 @@
         <v>1090</v>
       </c>
       <c r="B701" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B702" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B703" t="s">
         <v>1093</v>
@@ -11543,60 +11549,60 @@
         <v>1094</v>
       </c>
       <c r="B704" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B705" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B706" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B707" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B708" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B709" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B710" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B711" t="s">
         <v>1102</v>
@@ -11607,12 +11613,12 @@
         <v>1103</v>
       </c>
       <c r="B712" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B713" t="s">
         <v>1105</v>
@@ -11623,20 +11629,20 @@
         <v>1106</v>
       </c>
       <c r="B714" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B715" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B716" t="s">
         <v>1109</v>
@@ -11727,12 +11733,12 @@
         <v>1130</v>
       </c>
       <c r="B727" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B728" t="s">
         <v>1132</v>
@@ -11751,12 +11757,12 @@
         <v>1135</v>
       </c>
       <c r="B730" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B731" t="s">
         <v>1137</v>
@@ -11775,28 +11781,28 @@
         <v>1140</v>
       </c>
       <c r="B733" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B734" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B735" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B736" t="s">
         <v>1144</v>
@@ -11807,44 +11813,44 @@
         <v>1145</v>
       </c>
       <c r="B737" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B738" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B739" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B740" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B741" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B742" t="s">
         <v>1151</v>
@@ -11863,36 +11869,36 @@
         <v>1154</v>
       </c>
       <c r="B744" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B745" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B746" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B747" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B748" t="s">
         <v>1159</v>
@@ -11951,12 +11957,12 @@
         <v>1172</v>
       </c>
       <c r="B755" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B756" t="s">
         <v>1174</v>
@@ -11983,12 +11989,12 @@
         <v>1179</v>
       </c>
       <c r="B759" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B760" t="s">
         <v>1181</v>
@@ -11999,20 +12005,20 @@
         <v>1182</v>
       </c>
       <c r="B761" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B762" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B763" t="s">
         <v>1185</v>
@@ -12052,15 +12058,15 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B768" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B769" t="s">
         <v>1195</v>
@@ -12087,28 +12093,28 @@
         <v>1200</v>
       </c>
       <c r="B772" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B773" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B774" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B775" t="s">
         <v>1204</v>
@@ -12119,20 +12125,20 @@
         <v>1205</v>
       </c>
       <c r="B776" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B777" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B778" t="s">
         <v>1208</v>
@@ -12167,28 +12173,28 @@
         <v>1215</v>
       </c>
       <c r="B782" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B783" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B784" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B785" t="s">
         <v>1219</v>
@@ -12207,12 +12213,12 @@
         <v>1222</v>
       </c>
       <c r="B787" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B788" t="s">
         <v>1224</v>
@@ -12223,60 +12229,60 @@
         <v>1225</v>
       </c>
       <c r="B789" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B790" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B791" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B792" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B793" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B794" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B795" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B796" t="s">
         <v>1233</v>
@@ -12351,36 +12357,36 @@
         <v>1250</v>
       </c>
       <c r="B805" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B806" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B807" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B808" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B809" t="s">
         <v>1255</v>
@@ -12415,12 +12421,12 @@
         <v>1262</v>
       </c>
       <c r="B813" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B814" t="s">
         <v>1264</v>
@@ -12455,12 +12461,12 @@
         <v>1271</v>
       </c>
       <c r="B818" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B819" t="s">
         <v>1273</v>
@@ -12471,12 +12477,12 @@
         <v>1274</v>
       </c>
       <c r="B820" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B821" t="s">
         <v>1276</v>
@@ -12487,12 +12493,12 @@
         <v>1277</v>
       </c>
       <c r="B822" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B823" t="s">
         <v>1279</v>
@@ -12503,12 +12509,12 @@
         <v>1280</v>
       </c>
       <c r="B824" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B825" t="s">
         <v>1282</v>
@@ -12519,23 +12525,23 @@
         <v>1283</v>
       </c>
       <c r="B826" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B827" t="s">
-        <v>714</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B828" t="s">
-        <v>1286</v>
+        <v>714</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -12551,36 +12557,36 @@
         <v>1289</v>
       </c>
       <c r="B830" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B831" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B832" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B833" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B834" t="s">
         <v>1294</v>
@@ -12615,12 +12621,12 @@
         <v>1301</v>
       </c>
       <c r="B838" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B839" t="s">
         <v>1303</v>
@@ -12639,36 +12645,36 @@
         <v>1306</v>
       </c>
       <c r="B841" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B842" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B843" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B844" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B845" t="s">
         <v>1311</v>
@@ -12775,60 +12781,60 @@
         <v>1336</v>
       </c>
       <c r="B858" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B859" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B860" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B861" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B862" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B863" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B864" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B865" t="s">
         <v>1344</v>
@@ -12839,28 +12845,28 @@
         <v>1345</v>
       </c>
       <c r="B866" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B867" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B868" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B869" t="s">
         <v>1349</v>
@@ -12879,12 +12885,12 @@
         <v>1352</v>
       </c>
       <c r="B871" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B872" t="s">
         <v>1354</v>
@@ -12911,15 +12917,15 @@
         <v>1359</v>
       </c>
       <c r="B875" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B876" t="s">
         <v>1360</v>
-      </c>
-      <c r="B876" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -12927,20 +12933,20 @@
         <v>1362</v>
       </c>
       <c r="B877" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B878" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B879" t="s">
         <v>1365</v>
@@ -12967,12 +12973,12 @@
         <v>1370</v>
       </c>
       <c r="B882" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B883" t="s">
         <v>1372</v>
@@ -12991,12 +12997,12 @@
         <v>1375</v>
       </c>
       <c r="B885" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B886" t="s">
         <v>1377</v>
@@ -13007,28 +13013,28 @@
         <v>1378</v>
       </c>
       <c r="B887" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B888" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B889" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B890" t="s">
         <v>1382</v>
@@ -13039,20 +13045,20 @@
         <v>1383</v>
       </c>
       <c r="B891" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B892" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B893" t="s">
         <v>1386</v>
@@ -13079,20 +13085,20 @@
         <v>1391</v>
       </c>
       <c r="B896" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B897" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B898" t="s">
         <v>1394</v>
@@ -13135,60 +13141,60 @@
         <v>1403</v>
       </c>
       <c r="B903" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B904" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B905" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B906" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B907" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B908" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B909" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B910" t="s">
         <v>1411</v>
@@ -13223,20 +13229,20 @@
         <v>1418</v>
       </c>
       <c r="B914" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B915" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B916" t="s">
         <v>1421</v>
@@ -13279,20 +13285,20 @@
         <v>1430</v>
       </c>
       <c r="B921" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B922" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B923" t="s">
         <v>1433</v>
@@ -13327,12 +13333,12 @@
         <v>1440</v>
       </c>
       <c r="B927" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B928" t="s">
         <v>1442</v>
@@ -13351,20 +13357,20 @@
         <v>1445</v>
       </c>
       <c r="B930" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B931" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B932" t="s">
         <v>1448</v>
@@ -13375,12 +13381,12 @@
         <v>1449</v>
       </c>
       <c r="B933" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B934" t="s">
         <v>1451</v>
@@ -13407,12 +13413,12 @@
         <v>1456</v>
       </c>
       <c r="B937" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B938" t="s">
         <v>1458</v>
@@ -13431,36 +13437,36 @@
         <v>1461</v>
       </c>
       <c r="B940" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B941" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B942" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B943" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B944" t="s">
         <v>1466</v>
@@ -13471,52 +13477,52 @@
         <v>1467</v>
       </c>
       <c r="B945" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B946" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B947" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B948" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B949" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B950" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B951" t="s">
         <v>1474</v>
@@ -13551,20 +13557,20 @@
         <v>1481</v>
       </c>
       <c r="B955" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B956" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B957" t="s">
         <v>1484</v>
@@ -13615,36 +13621,36 @@
         <v>1495</v>
       </c>
       <c r="B963" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B964" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B965" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B966" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B967" t="s">
         <v>1500</v>
@@ -13663,12 +13669,12 @@
         <v>1503</v>
       </c>
       <c r="B969" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B970" t="s">
         <v>1505</v>
@@ -13735,20 +13741,20 @@
         <v>1520</v>
       </c>
       <c r="B978" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B979" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B980" t="s">
         <v>1523</v>
@@ -13767,28 +13773,28 @@
         <v>1526</v>
       </c>
       <c r="B982" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B983" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B984" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B985" t="s">
         <v>1530</v>
@@ -13831,12 +13837,12 @@
         <v>1539</v>
       </c>
       <c r="B990" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B991" t="s">
         <v>1541</v>
@@ -13847,12 +13853,12 @@
         <v>1542</v>
       </c>
       <c r="B992" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B993" t="s">
         <v>1544</v>
@@ -13871,28 +13877,28 @@
         <v>1547</v>
       </c>
       <c r="B995" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B996" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B997" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B998" t="s">
         <v>1551</v>
@@ -13903,12 +13909,12 @@
         <v>1552</v>
       </c>
       <c r="B999" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B1000" t="s">
         <v>1554</v>
@@ -13927,36 +13933,36 @@
         <v>1557</v>
       </c>
       <c r="B1002" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1003" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1004" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1005" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1006" t="s">
         <v>1562</v>
@@ -13967,36 +13973,36 @@
         <v>1563</v>
       </c>
       <c r="B1007" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B1008" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B1009" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B1010" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B1011" t="s">
         <v>1568</v>
@@ -14015,36 +14021,36 @@
         <v>1571</v>
       </c>
       <c r="B1013" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B1014" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B1015" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B1016" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B1017" t="s">
         <v>1576</v>
@@ -14063,12 +14069,12 @@
         <v>1579</v>
       </c>
       <c r="B1019" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B1020" t="s">
         <v>1581</v>
@@ -14095,12 +14101,12 @@
         <v>1586</v>
       </c>
       <c r="B1023" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B1024" t="s">
         <v>1588</v>
@@ -14111,20 +14117,20 @@
         <v>1589</v>
       </c>
       <c r="B1025" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1026" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1027" t="s">
         <v>1592</v>
@@ -14135,52 +14141,52 @@
         <v>1593</v>
       </c>
       <c r="B1028" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1029" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1030" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1031" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1032" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1033" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1034" t="s">
         <v>1600</v>
@@ -14199,12 +14205,12 @@
         <v>1603</v>
       </c>
       <c r="B1036" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1037" t="s">
         <v>1605</v>
@@ -14231,20 +14237,20 @@
         <v>1610</v>
       </c>
       <c r="B1040" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1041" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1042" t="s">
         <v>1613</v>
@@ -14271,20 +14277,20 @@
         <v>1618</v>
       </c>
       <c r="B1045" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1046" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1047" t="s">
         <v>1621</v>
@@ -14295,20 +14301,20 @@
         <v>1622</v>
       </c>
       <c r="B1048" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1049" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1050" t="s">
         <v>1625</v>
@@ -14487,12 +14493,12 @@
         <v>1668</v>
       </c>
       <c r="B1072" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1073" t="s">
         <v>1670</v>
@@ -14503,28 +14509,28 @@
         <v>1671</v>
       </c>
       <c r="B1074" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1075" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1076" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1077" t="s">
         <v>1675</v>
@@ -14535,12 +14541,12 @@
         <v>1676</v>
       </c>
       <c r="B1078" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1079" t="s">
         <v>1678</v>
@@ -14551,28 +14557,28 @@
         <v>1679</v>
       </c>
       <c r="B1080" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1081" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1082" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1083" t="s">
         <v>1683</v>
@@ -14583,20 +14589,20 @@
         <v>1684</v>
       </c>
       <c r="B1084" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1085" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1086" t="s">
         <v>1687</v>
@@ -14631,20 +14637,20 @@
         <v>1694</v>
       </c>
       <c r="B1090" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1091" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1092" t="s">
         <v>1697</v>
@@ -14687,12 +14693,12 @@
         <v>1706</v>
       </c>
       <c r="B1097" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1098" t="s">
         <v>1708</v>
@@ -14719,12 +14725,12 @@
         <v>1713</v>
       </c>
       <c r="B1101" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1102" t="s">
         <v>1715</v>
@@ -14735,20 +14741,20 @@
         <v>1716</v>
       </c>
       <c r="B1103" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1104" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1105" t="s">
         <v>1719</v>
@@ -14759,12 +14765,12 @@
         <v>1720</v>
       </c>
       <c r="B1106" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1107" t="s">
         <v>1722</v>
@@ -14791,20 +14797,20 @@
         <v>1727</v>
       </c>
       <c r="B1110" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1111" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1112" t="s">
         <v>1730</v>
@@ -14959,44 +14965,44 @@
         <v>1767</v>
       </c>
       <c r="B1131" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1132" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1133" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1134" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1135" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1136" t="s">
         <v>1773</v>
@@ -15015,36 +15021,36 @@
         <v>1776</v>
       </c>
       <c r="B1138" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1139" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1140" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1141" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B1142" t="s">
         <v>1781</v>
@@ -15055,12 +15061,12 @@
         <v>1782</v>
       </c>
       <c r="B1143" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B1144" t="s">
         <v>1784</v>
@@ -15087,12 +15093,12 @@
         <v>1789</v>
       </c>
       <c r="B1147" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B1148" t="s">
         <v>1791</v>
@@ -15103,12 +15109,12 @@
         <v>1792</v>
       </c>
       <c r="B1149" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B1150" t="s">
         <v>1794</v>
@@ -15119,12 +15125,12 @@
         <v>1795</v>
       </c>
       <c r="B1151" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B1152" t="s">
         <v>1797</v>
@@ -15159,44 +15165,44 @@
         <v>1804</v>
       </c>
       <c r="B1156" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1157" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1158" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1159" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1160" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1161" t="s">
         <v>1810</v>
@@ -15207,28 +15213,28 @@
         <v>1811</v>
       </c>
       <c r="B1162" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1163" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1164" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1165" t="s">
         <v>1815</v>
@@ -15239,36 +15245,36 @@
         <v>1816</v>
       </c>
       <c r="B1166" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1167" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1168" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1169" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B1170" t="s">
         <v>1821</v>
@@ -15287,12 +15293,12 @@
         <v>1824</v>
       </c>
       <c r="B1172" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1173" t="s">
         <v>1826</v>
@@ -15303,12 +15309,12 @@
         <v>1827</v>
       </c>
       <c r="B1174" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1175" t="s">
         <v>1829</v>
@@ -15327,36 +15333,36 @@
         <v>1832</v>
       </c>
       <c r="B1177" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1178" t="s">
-        <v>716</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1179" t="s">
-        <v>1834</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1180" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1181" t="s">
         <v>1837</v>
@@ -15367,20 +15373,20 @@
         <v>1838</v>
       </c>
       <c r="B1182" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1183" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1184" t="s">
         <v>1841</v>
@@ -15402,8 +15408,16 @@
         <v>1845</v>
       </c>
     </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1847</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1186"/>
+  <autoFilter ref="A1:B1187"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/es/headTags.xlsx
+++ b/lang/es/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1188</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1850">
   <si>
     <t>en</t>
   </si>
@@ -2752,2761 +2752,2767 @@
     <t>Hypixel (Súbdito)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutaciones)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mascotas)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacos)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pieles)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismanes)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pez trofeo)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Tierra de los lustrosos)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Edad de Hielo</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Iconos (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Iconos (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Iconos (Otros)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Iconos (fondo blanco)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identidad V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Increíbles</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Lesiones</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Encriptación</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Insecto</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invasor Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Invencible</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak y Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japón</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Tarro</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Joyería</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Viaje</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Parque Jurásico</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Liga de la Justicia</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Paraíso Kaiju</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Pantalla de lámpara</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Paisaje</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Linterna</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Castillo en el cielo</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Liga de Leyendas</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Pokémon legendarios</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Liga Letal</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Biblioteca de Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Lilo y Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Compañía Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>El Rey León</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>El Pequeño Gran Planeta</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>La Sirenita</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Pequeñas pesadillas</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>La pequeña tienda de los horrores</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>El Señor de los Anillos</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>¡Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Parte de la máquina</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Maquillaje</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Mary y la Flor de la Bruja</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Mascota</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Máscara</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Máscara (completa)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Máscara (funcional)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Máscara (salud)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Máscara (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Efecto Masa</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Amos del Universo</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Símbolo matemático</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Comida</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Taberna Medieval</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Casco de Guerra Medieval</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega Evolución</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Actores</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Equipo militar</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft Mazmorras</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Tierra</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Edición Educación</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft Leyendas</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft en vivo</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft Película</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Minecraft Modo Historia</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Minero</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Buscaminas</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Miraculous Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Diario del futuro)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>La Doncella Dragón de la Srta. Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Paquete de recursos de Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Casco Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Dinero</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monóculo</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Monturas del caos</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Enjuague bucal</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Drones Asesinos</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Champiñón</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Champiñón (Bioma)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Mushroom (Sombreros)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Música</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Bigote</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Mi amigo el ciervo Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Mi Pequeño Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Mi Vecino Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Mis monstruos cantores</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä del Valle del Viento</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (inspirado)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vainilla)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Criatura neutral</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Persona neutral</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Noche en el bosque</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Pesadilla antes de Navidad</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Tortugas Ninja</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Mitología Nórdica</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Trono nuclear</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Nuez</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Océano</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Oficial Cap</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy y las cucarachas</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Viejo</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Objetos de código abierto</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orbe</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Orco</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Órganos y partes del cuerpo</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Otros accesorios para la cabeza</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Otra iluminación</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Otra criatura mística</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Bloque de capa exterior</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Chupete</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Cara pintada</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspirado)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Oso Panda</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Papeles por favor</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>PaRappa el Rapero</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Fiesta</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Pasteles y dulces</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Día de pago</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingüino</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Tabla periódica de los elementos</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Equipo para mascotas</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Phineas y Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Cerdo</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Pantera Rosa</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky y el cerebro</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinocho</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Piratas del Caribe</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planeta</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Plantas contra zombis</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Generación 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Objetos Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Entrenador Pokemon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Oso Polar</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Policía</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Cartero Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Orgullo</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Princesa Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Profesor Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Calabaza</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Signo de puntuación</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Conejo</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Ferrocarril</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>El mundo de la lluvia</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Ratchet y Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Creadores</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>El reino del dios loco</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Forma Regional Pokemon</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religión</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Reptil</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Rescate Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Cinta</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick y Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Riesgo de Lluvia</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Rival de Aether</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Río</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Roedor</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Entidad rotatoria</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Sombrero real</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runa</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Criatura triste</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Persona triste</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Otro)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga de Tanya la Malvada</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Casco de samurái</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Satisfactorio</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Bufanda</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>SCP Contención Brecha</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Grito</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Marinero</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Experimentos en serie Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Barrio Sésamo</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Siete pecados capitales</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Sombras de Mordor</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Ovejas</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Envío</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Esqueleto</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Esqueleto (Vainilla)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Criatura escéptica</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Persona escéptica</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Bella Durmiente</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Criatura Durmiente</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Persona durmiente</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Rebanada</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Baba</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (Vainilla)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Fumar</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Pitufos</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Escultura de nieve</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Blancanieves y los siete enanitos</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Canciones de guerra</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Sonic el erizo</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Caballero del alma</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Parque Sur</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Viaje espacial</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Huevo Spawn</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Araña</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Spider (Vainilla)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Bob Esponja</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Mansión del Terror</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Espora</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Deporte</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Difunde</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Espía x Familia</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Juego del calamar</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Día de San Patricio</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Star contra las Fuerzas del Mal</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Casco Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Casco Star Wars Trooper</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Papelería</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Piedra</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Storage (otros)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Verano</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Gafas de sol</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Sobrenatural</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Criatura sorprendida</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Persona sorprendida</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Pantano</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Enredados</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Acción de Gracias</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Aquella vez que me reencarné en una baba</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Las aventuras de Tintín</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>El asombroso circo digital</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>El asombroso mundo de Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>El Gato Vuelve</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>El conjuro</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>La Edad de Cobre</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>Los padrinos mágicos</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Los Picapiedra</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>La Mosca</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>El jardín despierta</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>El buen dinosaurio</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>El Gran Detective Ratón</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Las sombrías aventuras de Billy y Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>El jorobado de Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>El gigante de hierro</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>El último guardián</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>El último de nosotros</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>La leyenda de Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>El Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>El Nunca Jamás</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>La casa de los búhos</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>La princesa y el sapo</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>El show de Ren y Stimpy</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Camino de El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>La matanza de Texas</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Los Tres Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Los archivos Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>El show de Woody Woodpecker</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thomas y sus amigos</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Aquellas noches en casa de Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom y Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Los pioneros del mañana</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Proyecto Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Tráfico</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Semáforo</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Señal de tráfico</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Senderos y cuentos</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Cabeza transparente</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Cubo de basura</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Tesoro</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Planeta del Tesoro</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Tricky Trials Actualización</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Tortuga</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Bosque Crepuscular</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>El retorcido país de las maravillas</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Cuando lloran</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale Amarillo</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Arriba</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Vida salvaje urbana</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V de Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vainilla (eliminado)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Bloque de vainilla</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Comida de vainilla</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Casco Vainilla</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Objeto de vainilla</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Mafia de vainilla</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Cazadores de bóvedas</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Vegetal</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Vehículo</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vikingos</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Aldeano</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Aldeano (desierto)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Aldeano (Selva)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Aldeano (Llanura)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Aldeano (sabana)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Aldeano (Tundra nevada)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Aldeano (pantano)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Aldeano (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Youtuber virtual</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace y Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>La Guerra de los Mundos</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Nosotros los Osos</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Bienvenido a casa</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>¿Quién es?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Alas de fuego</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Invierno</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Maravilloso Mundo Maravilloso</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Casco de seguridad</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Simulador Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Joven</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Ala Zero</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Signo del Zodiaco</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vainilla)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Etiqueta Hypixel (Mutaciones)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Mascotas)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacos)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pieles)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismanes)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pez trofeo)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Tierra de los lustrosos)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Edad de Hielo</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Iconos (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Iconos (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Iconos (Otros)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Iconos (fondo blanco)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identidad V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Increíbles</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Lesiones</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Encriptación</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Insecto</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invasor Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Invencible</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak y Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japón</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Tarro</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Joyería</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Viaje</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Parque Jurásico</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Liga de la Justicia</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Paraíso Kaiju</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Cocina</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Pantalla de lámpara</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Paisaje</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Linterna</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Castillo en el cielo</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Liga de Leyendas</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Pokémon legendarios</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Liga Letal</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Biblioteca de Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Lilo y Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Compañía Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>El Rey León</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>El Pequeño Gran Planeta</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>La Sirenita</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Pequeñas pesadillas</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>La pequeña tienda de los horrores</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>El Señor de los Anillos</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>¡Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Parte de la máquina</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Maquillaje</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Mary y la Flor de la Bruja</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Mascota</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Máscara</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Máscara (completa)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Máscara (funcional)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Máscara (salud)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Máscara (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Efecto Masa</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Amos del Universo</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Símbolo matemático</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Comida</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Carne</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Taberna Medieval</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Casco de Guerra Medieval</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega Evolución</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Actores</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Equipo militar</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft Mazmorras</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Tierra</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Edición Educación</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft Leyendas</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft en vivo</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft Película</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Minecraft Modo Historia</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Minero</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Buscaminas</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Miraculous Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Diario del futuro)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>La Doncella Dragón de la Srta. Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Paquete de recursos de Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Casco Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Dinero</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monóculo</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Monturas del caos</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Enjuague bucal</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Drones Asesinos</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Champiñón</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Champiñón (Bioma)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Mushroom (Sombreros)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Música</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Bigote</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Mi amigo el ciervo Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Mi Pequeño Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Mi Vecino Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Mis monstruos cantores</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä del Valle del Viento</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (inspirado)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vainilla)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Criatura neutral</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Persona neutral</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Noche en el bosque</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Pesadilla antes de Navidad</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Tortugas Ninja</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Mitología Nórdica</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Trono nuclear</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Nuez</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Océano</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Oficial Cap</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy y las cucarachas</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Viejo</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Objetos de código abierto</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orbe</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Orco</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Mineral</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Órganos y partes del cuerpo</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Otros accesorios para la cabeza</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Otra iluminación</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Otra criatura mística</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Bloque de capa exterior</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Chupete</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Cara pintada</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspirado)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Oso Panda</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Papeles por favor</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>PaRappa el Rapero</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Fiesta</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Pasteles y dulces</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Día de pago</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingüino</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Tabla periódica de los elementos</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Equipo para mascotas</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Phineas y Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Cerdo</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Pantera Rosa</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky y el cerebro</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinocho</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Piratas del Caribe</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planeta</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Plantas contra zombis</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Generación 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Objetos Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Entrenador Pokemon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Oso Polar</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Policía</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Cartero Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Presente</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Orgullo</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Princesa Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Profesor Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Calabaza</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Signo de puntuación</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Conejo</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Ferrocarril</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>El mundo de la lluvia</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Ratchet y Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Creadores</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>El reino del dios loco</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Forma Regional Pokemon</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religión</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Reptil</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Rescate Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Cinta</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick y Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Riesgo de Lluvia</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Rival de Aether</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Río</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Roedor</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Entidad rotatoria</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Sombrero real</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runa</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Criatura triste</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Persona triste</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Otro)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga de Tanya la Malvada</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Casco de samurái</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Satisfactorio</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Bufanda</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>SCP Contención Brecha</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Grito</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Marinero</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Experimentos en serie Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Barrio Sésamo</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Siete pecados capitales</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Sombras de Mordor</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Ovejas</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Envío</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Esqueleto</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Esqueleto (Vainilla)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Criatura escéptica</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Persona escéptica</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Bella Durmiente</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Criatura Durmiente</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Persona durmiente</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Rebanada</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Baba</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (Vainilla)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Fumar</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Pitufos</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Escultura de nieve</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Blancanieves y los siete enanitos</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Canciones de guerra</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Sonic el erizo</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Caballero del alma</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Parque Sur</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Viaje espacial</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Huevo Spawn</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Araña</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Spider (Vainilla)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Bob Esponja</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Mansión del Terror</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Espora</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Deporte</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Difunde</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Espía x Familia</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Juego del calamar</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Día de San Patricio</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Star contra las Fuerzas del Mal</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Casco Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Casco Star Wars Trooper</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Papelería</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Piedra</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Storage (otros)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Verano</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Gafas de sol</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Sobrenatural</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Criatura sorprendida</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Persona sorprendida</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Pantano</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Enredados</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Acción de Gracias</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Aquella vez que me reencarné en una baba</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Las aventuras de Tintín</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>El asombroso circo digital</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>El asombroso mundo de Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>El Gato Vuelve</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>El conjuro</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>La Edad de Cobre</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>Los padrinos mágicos</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Los Picapiedra</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>La Mosca</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>El jardín despierta</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>El buen dinosaurio</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>El Gran Detective Ratón</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Las sombrías aventuras de Billy y Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>El jorobado de Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>El gigante de hierro</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>El último guardián</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>El último de nosotros</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>La leyenda de Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>El Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>El Nunca Jamás</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>La casa de los búhos</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>La princesa y el sapo</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>El show de Ren y Stimpy</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Camino de El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>La matanza de Texas</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Los Tres Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Los archivos Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>El show de Woody Woodpecker</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thomas y sus amigos</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Aquellas noches en casa de Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom y Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Los pioneros del mañana</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Proyecto Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Tráfico</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Semáforo</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Señal de tráfico</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Senderos y cuentos</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Cabeza transparente</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Cubo de basura</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Tesoro</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Planeta del Tesoro</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Tricky Trials Actualización</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Tortuga</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Bosque Crepuscular</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>El retorcido país de las maravillas</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Cuando lloran</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale Amarillo</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Arriba</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Vida salvaje urbana</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V de Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vainilla (eliminado)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Bloque de vainilla</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Comida de vainilla</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Casco Vainilla</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Objeto de vainilla</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Mafia de vainilla</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Cazadores de bóvedas</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Vegetal</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Vehículo</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vikingos</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Aldeano</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Aldeano (desierto)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Aldeano (Selva)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Aldeano (Llanura)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Aldeano (sabana)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Aldeano (Tundra nevada)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Aldeano (pantano)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Aldeano (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Youtuber virtual</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace y Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>La Guerra de los Mundos</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Nosotros los Osos</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Bienvenido a casa</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>¿Quién es?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Alas de fuego</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Invierno</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Maravilloso Mundo Maravilloso</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Madera</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Lana</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Casco de seguridad</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Simulador Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Joven</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Ala Zero</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Signo del Zodiaco</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vainilla)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -5907,7 +5913,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1187"/>
+  <dimension ref="A1:B1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15341,36 +15347,36 @@
         <v>1834</v>
       </c>
       <c r="B1178" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1179" t="s">
-        <v>716</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1180" t="s">
-        <v>1836</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1181" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1182" t="s">
         <v>1839</v>
@@ -15381,20 +15387,20 @@
         <v>1840</v>
       </c>
       <c r="B1183" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1184" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1185" t="s">
         <v>1843</v>
@@ -15416,8 +15422,16 @@
         <v>1847</v>
       </c>
     </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>1849</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1187"/>
+  <autoFilter ref="A1:B1188"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
